--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="17">
   <si>
     <t>Var1</t>
   </si>
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -107,11 +107,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -123,6 +133,16 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,45 +170,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -226,7 +246,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -264,7 +284,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -302,7 +322,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -340,7 +360,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -396,50 +416,50 @@
     <col min="8" max="8" width="7.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.5703125" customWidth="true"/>
     <col min="10" max="10" width="9.28515625" customWidth="true"/>
-    <col min="11" max="11" width="7.7109375" customWidth="true"/>
+    <col min="11" max="11" width="6.7109375" customWidth="true"/>
     <col min="12" max="12" width="15.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -477,7 +497,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -508,14 +528,14 @@
         <v>202.69</v>
       </c>
       <c r="K3">
-        <v>802.70899999999995</v>
+        <v>802.71000000000004</v>
       </c>
       <c r="L3">
         <v>7.6840000000000002</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -553,7 +573,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -591,7 +611,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -652,45 +672,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -709,10 +729,10 @@
         <v>0.249</v>
       </c>
       <c r="G2">
-        <v>0.39900000000000002</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="H2">
-        <v>0.29899999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="I2">
         <v>0.29399999999999998</v>
@@ -728,11 +748,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5456.79</v>
+        <v>5456.7910000000002</v>
       </c>
       <c r="C3">
         <v>278.54899999999998</v>
@@ -741,32 +761,32 @@
         <v>460.73899999999998</v>
       </c>
       <c r="E3">
-        <v>1712.5730000000001</v>
+        <v>1712.5740000000001</v>
       </c>
       <c r="F3">
         <v>841.18899999999996</v>
       </c>
       <c r="G3">
-        <v>173698.57000000001</v>
+        <v>49286.061000000002</v>
       </c>
       <c r="H3">
-        <v>8408.0959999999995</v>
+        <v>71255.830000000002</v>
       </c>
       <c r="I3">
-        <v>7857.4880000000003</v>
+        <v>7857.4849999999997</v>
       </c>
       <c r="J3">
-        <v>36587.084000000003</v>
+        <v>36586.896999999997</v>
       </c>
       <c r="K3">
-        <v>29764.152999999998</v>
+        <v>29764.181</v>
       </c>
       <c r="L3">
         <v>10.833</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -804,7 +824,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -842,7 +862,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -903,45 +923,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -979,7 +999,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1017,7 +1037,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1055,7 +1075,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1093,7 +1113,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1154,45 +1174,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1230,7 +1250,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1268,7 +1288,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B4">

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="17">
   <si>
     <t>Var1</t>
   </si>
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -117,11 +117,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -143,6 +153,16 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,45 +190,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -246,7 +266,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -284,7 +304,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -322,7 +342,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -360,7 +380,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -416,50 +436,50 @@
     <col min="8" max="8" width="7.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.5703125" customWidth="true"/>
     <col min="10" max="10" width="9.28515625" customWidth="true"/>
-    <col min="11" max="11" width="6.7109375" customWidth="true"/>
+    <col min="11" max="11" width="7.7109375" customWidth="true"/>
     <col min="12" max="12" width="15.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -497,7 +517,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -528,14 +548,14 @@
         <v>202.69</v>
       </c>
       <c r="K3">
-        <v>802.71000000000004</v>
+        <v>802.70899999999995</v>
       </c>
       <c r="L3">
         <v>7.6840000000000002</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -573,7 +593,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -611,7 +631,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -672,45 +692,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -729,16 +749,16 @@
         <v>0.249</v>
       </c>
       <c r="G2">
-        <v>0.35599999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="H2">
-        <v>0.372</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="I2">
-        <v>0.29399999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="J2">
-        <v>0.33300000000000002</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="K2">
         <v>0.40699999999999997</v>
@@ -748,11 +768,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5456.7910000000002</v>
+        <v>5456.7920000000004</v>
       </c>
       <c r="C3">
         <v>278.54899999999998</v>
@@ -767,26 +787,26 @@
         <v>841.18899999999996</v>
       </c>
       <c r="G3">
-        <v>49286.061000000002</v>
+        <v>50546.453000000001</v>
       </c>
       <c r="H3">
-        <v>71255.830000000002</v>
+        <v>8408.0910000000003</v>
       </c>
       <c r="I3">
-        <v>7857.4849999999997</v>
+        <v>15026.512000000001</v>
       </c>
       <c r="J3">
-        <v>36586.896999999997</v>
+        <v>75660.721999999994</v>
       </c>
       <c r="K3">
-        <v>29764.181</v>
+        <v>29764.059000000001</v>
       </c>
       <c r="L3">
         <v>10.833</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -824,7 +844,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -862,7 +882,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -923,45 +943,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -999,7 +1019,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1037,7 +1057,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1075,7 +1095,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1113,7 +1133,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1174,45 +1194,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1250,7 +1270,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1288,7 +1308,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B4">

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="183">
   <si>
     <t>Var1</t>
   </si>
@@ -33,6 +33,504 @@
   </si>
   <si>
     <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
   </si>
   <si>
     <t>Observations</t>
@@ -89,7 +587,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -127,11 +625,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -163,6 +671,16 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,229 +709,229 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="0">
         <v>0.151</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.184</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>0.16600000000000001</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>0.11</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0.17999999999999999</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>0.16900000000000001</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>0.111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="B3" s="0">
         <v>76.867000000000004</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>24.859000000000002</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>58.442</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>360.214</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>74.119</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>126.77800000000001</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>26.352</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>208.86099999999999</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>202.69</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>802.70899999999995</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>7.6840000000000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="B4" s="0">
         <v>23.827999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>21.977</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>30.106999999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>12.705</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>33</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>22.733000000000001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>23.117999999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>23.088000000000001</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0">
         <v>11.664</v>
       </c>
-      <c r="K4">
-        <v>31</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="0">
+        <v>31</v>
+      </c>
+      <c r="L4" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="B5" s="0">
         <v>3059.1900000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>3643.7660000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>2496.5520000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>2671.0410000000002</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>1812</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>1775.0540000000001</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>4458.1490000000003</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>3066.9549999999999</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0">
         <v>4550</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0">
         <v>3018</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0">
         <v>574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6">
+        <v>105</v>
+      </c>
+      <c r="B6" s="0">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>31</v>
-      </c>
-      <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="0">
+        <v>31</v>
+      </c>
+      <c r="G6" s="0">
+        <v>31</v>
+      </c>
+      <c r="H6" s="0">
         <v>29</v>
       </c>
-      <c r="I6">
-        <v>31</v>
-      </c>
-      <c r="J6">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>31</v>
-      </c>
-      <c r="L6">
+      <c r="I6" s="0">
+        <v>31</v>
+      </c>
+      <c r="J6" s="0">
+        <v>31</v>
+      </c>
+      <c r="K6" s="0">
+        <v>31</v>
+      </c>
+      <c r="L6" s="0">
         <v>26</v>
       </c>
     </row>
@@ -442,229 +960,229 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>118</v>
+      </c>
+      <c r="B2" s="0">
         <v>0.16700000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.14199999999999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>0.153</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>0.124</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>0.156</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0.19700000000000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>0.16900000000000001</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>0.111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>245.381</v>
-      </c>
-      <c r="C3">
+        <v>119</v>
+      </c>
+      <c r="B3" s="0">
+        <v>245.38200000000001</v>
+      </c>
+      <c r="C3" s="0">
         <v>68.703000000000003</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>264.67700000000002</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>108.81100000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>155.00700000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>70.384</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>181.91399999999999</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>657.20799999999997</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>202.69</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>802.70899999999995</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>7.6840000000000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="B4" s="0">
         <v>11.664</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>11.664</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>11.664</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>11.664</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>11.664</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>11.664</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>11.664</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11.664</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0">
         <v>11.664</v>
       </c>
-      <c r="K4">
-        <v>31</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="0">
+        <v>31</v>
+      </c>
+      <c r="L4" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+        <v>121</v>
+      </c>
+      <c r="B5" s="0">
         <v>4550</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>4550</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>4550</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>4550</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>4550</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>4550</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>4550</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>4550</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0">
         <v>4550</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0">
         <v>3018</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0">
         <v>574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6">
+        <v>122</v>
+      </c>
+      <c r="B6" s="0">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>31</v>
-      </c>
-      <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="0">
+        <v>31</v>
+      </c>
+      <c r="G6" s="0">
+        <v>31</v>
+      </c>
+      <c r="H6" s="0">
         <v>29</v>
       </c>
-      <c r="I6">
-        <v>31</v>
-      </c>
-      <c r="J6">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>31</v>
-      </c>
-      <c r="L6">
+      <c r="I6" s="0">
+        <v>31</v>
+      </c>
+      <c r="J6" s="0">
+        <v>31</v>
+      </c>
+      <c r="K6" s="0">
+        <v>31</v>
+      </c>
+      <c r="L6" s="0">
         <v>26</v>
       </c>
     </row>
@@ -681,241 +1199,241 @@
     <col min="2" max="2" width="9" customWidth="true"/>
     <col min="3" max="3" width="7.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.85546875" customWidth="true"/>
-    <col min="5" max="5" width="8.7109375" customWidth="true"/>
+    <col min="5" max="5" width="7.7109375" customWidth="true"/>
     <col min="6" max="6" width="8.5703125" customWidth="true"/>
-    <col min="7" max="7" width="9.7109375" customWidth="true"/>
-    <col min="8" max="8" width="8.7109375" customWidth="true"/>
+    <col min="7" max="7" width="9.42578125" customWidth="true"/>
+    <col min="8" max="8" width="7.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.5703125" customWidth="true"/>
-    <col min="10" max="10" width="9.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.7109375" customWidth="true"/>
+    <col min="10" max="10" width="9.28515625" customWidth="true"/>
+    <col min="11" max="11" width="7.7109375" customWidth="true"/>
     <col min="12" max="12" width="15.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="C2">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="D2">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="E2">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="F2">
-        <v>0.249</v>
-      </c>
-      <c r="G2">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="H2">
+        <v>135</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F2" s="0">
         <v>0.29899999999999999</v>
       </c>
-      <c r="I2">
-        <v>0.316</v>
-      </c>
-      <c r="J2">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="K2">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="L2">
-        <v>0.123</v>
+      <c r="G2" s="0">
+        <v>-1.089</v>
+      </c>
+      <c r="H2" s="0">
+        <v>-1.048</v>
+      </c>
+      <c r="I2" s="0">
+        <v>-1.0880000000000001</v>
+      </c>
+      <c r="J2" s="0">
+        <v>-0.98899999999999999</v>
+      </c>
+      <c r="K2" s="0">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="L2" s="0">
+        <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5456.7920000000004</v>
-      </c>
-      <c r="C3">
-        <v>278.54899999999998</v>
-      </c>
-      <c r="D3">
-        <v>460.73899999999998</v>
-      </c>
-      <c r="E3">
-        <v>1712.5740000000001</v>
-      </c>
-      <c r="F3">
-        <v>841.18899999999996</v>
-      </c>
-      <c r="G3">
-        <v>50546.453000000001</v>
-      </c>
-      <c r="H3">
-        <v>8408.0910000000003</v>
-      </c>
-      <c r="I3">
-        <v>15026.512000000001</v>
-      </c>
-      <c r="J3">
-        <v>75660.721999999994</v>
-      </c>
-      <c r="K3">
-        <v>29764.059000000001</v>
-      </c>
-      <c r="L3">
-        <v>10.833</v>
+        <v>136</v>
+      </c>
+      <c r="B3" s="0">
+        <v>983.81500000000005</v>
+      </c>
+      <c r="C3" s="0">
+        <v>50.798000000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>51.718000000000004</v>
+      </c>
+      <c r="E3" s="0">
+        <v>51.817999999999998</v>
+      </c>
+      <c r="F3" s="0">
+        <v>51.307000000000002</v>
+      </c>
+      <c r="G3" s="0">
+        <v>50.003999999999998</v>
+      </c>
+      <c r="H3" s="0">
+        <v>50.014000000000003</v>
+      </c>
+      <c r="I3" s="0">
+        <v>50.003</v>
+      </c>
+      <c r="J3" s="0">
+        <v>50.003</v>
+      </c>
+      <c r="K3" s="0">
+        <v>51.664000000000001</v>
+      </c>
+      <c r="L3" s="0">
+        <v>46.810000000000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>23.827999999999999</v>
-      </c>
-      <c r="C4">
-        <v>21.977</v>
-      </c>
-      <c r="D4">
-        <v>30.106999999999999</v>
-      </c>
-      <c r="E4">
-        <v>24.937999999999999</v>
-      </c>
-      <c r="F4">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>22.733000000000001</v>
-      </c>
-      <c r="H4">
-        <v>23.117999999999999</v>
-      </c>
-      <c r="I4">
-        <v>23.088000000000001</v>
-      </c>
-      <c r="J4">
-        <v>11.664</v>
-      </c>
-      <c r="K4">
-        <v>31</v>
-      </c>
-      <c r="L4">
-        <v>113</v>
+        <v>137</v>
+      </c>
+      <c r="B4" s="0">
+        <v>789.95399999999995</v>
+      </c>
+      <c r="C4" s="0">
+        <v>84.215999999999994</v>
+      </c>
+      <c r="D4" s="0">
+        <v>125.752</v>
+      </c>
+      <c r="E4" s="0">
+        <v>154.226</v>
+      </c>
+      <c r="F4" s="0">
+        <v>103.69</v>
+      </c>
+      <c r="G4" s="0">
+        <v>24.228000000000002</v>
+      </c>
+      <c r="H4" s="0">
+        <v>24.571000000000002</v>
+      </c>
+      <c r="I4" s="0">
+        <v>24.783000000000001</v>
+      </c>
+      <c r="J4" s="0">
+        <v>13.077999999999999</v>
+      </c>
+      <c r="K4" s="0">
+        <v>82.272999999999996</v>
+      </c>
+      <c r="L4" s="0">
+        <v>318.07600000000002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>765.21900000000005</v>
-      </c>
-      <c r="C5">
-        <v>831.02300000000002</v>
-      </c>
-      <c r="D5">
-        <v>1086.646</v>
-      </c>
-      <c r="E5">
-        <v>721.649</v>
-      </c>
-      <c r="F5">
-        <v>806</v>
-      </c>
-      <c r="G5">
-        <v>467.45999999999998</v>
-      </c>
-      <c r="H5">
-        <v>710</v>
-      </c>
-      <c r="I5">
-        <v>933.69100000000003</v>
-      </c>
-      <c r="J5">
-        <v>889.96100000000001</v>
-      </c>
-      <c r="K5">
-        <v>705</v>
-      </c>
-      <c r="L5">
-        <v>533</v>
+        <v>138</v>
+      </c>
+      <c r="B5" s="0">
+        <v>903.55700000000002</v>
+      </c>
+      <c r="C5" s="0">
+        <v>830.44600000000003</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1085.479</v>
+      </c>
+      <c r="E5" s="0">
+        <v>718.66999999999996</v>
+      </c>
+      <c r="F5" s="0">
+        <v>804.91899999999998</v>
+      </c>
+      <c r="G5" s="0">
+        <v>467.387</v>
+      </c>
+      <c r="H5" s="0">
+        <v>709.95600000000002</v>
+      </c>
+      <c r="I5" s="0">
+        <v>933.64800000000002</v>
+      </c>
+      <c r="J5" s="0">
+        <v>889.94200000000001</v>
+      </c>
+      <c r="K5" s="0">
+        <v>704.36099999999999</v>
+      </c>
+      <c r="L5" s="0">
+        <v>510.947</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6">
+        <v>139</v>
+      </c>
+      <c r="B6" s="0">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>31</v>
-      </c>
-      <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="0">
+        <v>31</v>
+      </c>
+      <c r="G6" s="0">
+        <v>31</v>
+      </c>
+      <c r="H6" s="0">
         <v>29</v>
       </c>
-      <c r="I6">
-        <v>31</v>
-      </c>
-      <c r="J6">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>31</v>
-      </c>
-      <c r="L6">
+      <c r="I6" s="0">
+        <v>31</v>
+      </c>
+      <c r="J6" s="0">
+        <v>31</v>
+      </c>
+      <c r="K6" s="0">
+        <v>31</v>
+      </c>
+      <c r="L6" s="0">
         <v>26</v>
       </c>
     </row>
@@ -944,229 +1462,229 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>152</v>
+      </c>
+      <c r="B2" s="0">
         <v>0.040000000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0.043999999999999997</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.039</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.035000000000000003</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>0.034000000000000002</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>0.027</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>0.035999999999999997</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0.047</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>0.050000000000000003</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0">
         <v>0.051999999999999998</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>0.017000000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+        <v>153</v>
+      </c>
+      <c r="B3" s="0">
         <v>17.364000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>16.056999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>17.422000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>14.537000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>14.69</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>12.093999999999999</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>15.617000000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>22.093</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>19.905000000000001</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>20.556999999999999</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>13.022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>154</v>
+      </c>
+      <c r="B4" s="0">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+        <v>155</v>
+      </c>
+      <c r="B5" s="0">
         <v>1000000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>1000000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>1000000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>1000000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>1000000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>1000000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>1000000</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>1000000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0">
         <v>1000000</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0">
         <v>1000000</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0">
         <v>1000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6">
+        <v>156</v>
+      </c>
+      <c r="B6" s="0">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>31</v>
-      </c>
-      <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="0">
+        <v>31</v>
+      </c>
+      <c r="G6" s="0">
+        <v>31</v>
+      </c>
+      <c r="H6" s="0">
         <v>29</v>
       </c>
-      <c r="I6">
-        <v>31</v>
-      </c>
-      <c r="J6">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>31</v>
-      </c>
-      <c r="L6">
+      <c r="I6" s="0">
+        <v>31</v>
+      </c>
+      <c r="J6" s="0">
+        <v>31</v>
+      </c>
+      <c r="K6" s="0">
+        <v>31</v>
+      </c>
+      <c r="L6" s="0">
         <v>26</v>
       </c>
     </row>
@@ -1195,153 +1713,153 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>169</v>
+      </c>
+      <c r="B2" s="0">
         <v>0.0060000000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0.010999999999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.0060000000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.0070000000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>0.0060000000000000001</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>0.0050000000000000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>0.0060000000000000001</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0.0050000000000000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>0.0070000000000000001</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0">
         <v>0.0080000000000000002</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>0.0030000000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+        <v>170</v>
+      </c>
+      <c r="B3" s="0">
         <v>0.94199999999999995</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>0.97099999999999997</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.94799999999999995</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>0.93700000000000006</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>0.90800000000000003</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>0.95099999999999996</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>0.95899999999999996</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>0.95199999999999996</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-      <c r="C4">
+        <v>171</v>
+      </c>
+      <c r="B4" s="0">
+        <v>31</v>
+      </c>
+      <c r="C4" s="0">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>26</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>30</v>
       </c>
-      <c r="F4">
-        <v>31</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="0">
+        <v>31</v>
+      </c>
+      <c r="G4" s="0">
+        <v>31</v>
+      </c>
+      <c r="H4" s="0">
         <v>29</v>
       </c>
-      <c r="I4">
-        <v>31</v>
-      </c>
-      <c r="J4">
-        <v>31</v>
-      </c>
-      <c r="K4">
-        <v>31</v>
-      </c>
-      <c r="L4">
+      <c r="I4" s="0">
+        <v>31</v>
+      </c>
+      <c r="J4" s="0">
+        <v>31</v>
+      </c>
+      <c r="K4" s="0">
+        <v>31</v>
+      </c>
+      <c r="L4" s="0">
         <v>26</v>
       </c>
     </row>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Var1</t>
   </si>
@@ -68,7 +68,10 @@
     <t>US</t>
   </si>
   <si>
-    <t>England &amp; Wales</t>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
   </si>
   <si>
     <t>Var1</t>
@@ -116,10 +119,58 @@
     <t>Sheffield</t>
   </si>
   <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
     <t>US</t>
   </si>
   <si>
-    <t>England &amp; Wales</t>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
   </si>
   <si>
     <t>Var1</t>
@@ -170,7 +221,10 @@
     <t>US</t>
   </si>
   <si>
-    <t>England &amp; Wales</t>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
   </si>
   <si>
     <t>Var1</t>
@@ -182,12 +236,6 @@
     <t>\eta_{0}</t>
   </si>
   <si>
-    <t>d_{min}</t>
-  </si>
-  <si>
-    <t>d_{max}</t>
-  </si>
-  <si>
     <t>Observations</t>
   </si>
   <si>
@@ -221,352 +269,10 @@
     <t>US</t>
   </si>
   <si>
-    <t>England &amp; Wales</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>\lambda</t>
-  </si>
-  <si>
-    <t>\eta_{0}</t>
-  </si>
-  <si>
-    <t>d_{min}</t>
-  </si>
-  <si>
-    <t>d_{max}</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>All Cities</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>England &amp; Wales</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>\lambda</t>
-  </si>
-  <si>
-    <t>\eta_{0}</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>All Cities</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>England &amp; Wales</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>\lambda</t>
-  </si>
-  <si>
-    <t>\eta_{0}</t>
-  </si>
-  <si>
-    <t>d_{min}</t>
-  </si>
-  <si>
-    <t>d_{max}</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>All Cities</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>England &amp; Wales</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>\lambda</t>
-  </si>
-  <si>
-    <t>\eta_{0}</t>
-  </si>
-  <si>
-    <t>d_{min}</t>
-  </si>
-  <si>
-    <t>d_{max}</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>All Cities</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>England &amp; Wales</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>\lambda</t>
-  </si>
-  <si>
-    <t>\eta_{0}</t>
-  </si>
-  <si>
-    <t>d_{min}</t>
-  </si>
-  <si>
-    <t>d_{max}</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>All Cities</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>England &amp; Wales</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>\lambda</t>
-  </si>
-  <si>
-    <t>\eta_{0}</t>
-  </si>
-  <si>
-    <t>d_{min}</t>
-  </si>
-  <si>
-    <t>d_{max}</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>All Cities</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>England &amp; Wales</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>\lambda</t>
-  </si>
-  <si>
-    <t>\eta_{0}</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>All Cities</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>England &amp; Wales</t>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
   </si>
 </sst>
 </file>
@@ -587,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -596,91 +302,13 @@
       <diagonal/>
     </border>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +318,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="true"/>
@@ -703,127 +331,137 @@
     <col min="8" max="8" width="8.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.5703125" customWidth="true"/>
     <col min="10" max="10" width="9.28515625" customWidth="true"/>
-    <col min="11" max="11" width="7.7109375" customWidth="true"/>
-    <col min="12" max="12" width="15.85546875" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
+    <col min="12" max="12" width="20.28515625" customWidth="true"/>
+    <col min="13" max="13" width="20.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>116</v>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>101</v>
+      <c r="A2" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.151</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C2" s="0">
-        <v>0.11899999999999999</v>
+        <v>0.073999999999999996</v>
       </c>
       <c r="D2" s="0">
-        <v>0.14399999999999999</v>
+        <v>0.161</v>
       </c>
       <c r="E2" s="0">
-        <v>0.184</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="F2" s="0">
-        <v>0.16600000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G2" s="0">
-        <v>0.16600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="H2" s="0">
-        <v>0.11</v>
+        <v>0.094</v>
       </c>
       <c r="I2" s="0">
-        <v>0.17999999999999999</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="J2" s="0">
-        <v>0.16900000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="K2" s="0">
-        <v>0.27800000000000002</v>
+        <v>0.246</v>
       </c>
       <c r="L2" s="0">
+        <v>0.187</v>
+      </c>
+      <c r="M2" s="0">
         <v>0.111</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
-        <v>102</v>
+      <c r="A3" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>76.867000000000004</v>
+        <v>3.694</v>
       </c>
       <c r="C3" s="0">
-        <v>24.859000000000002</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D3" s="0">
-        <v>58.442</v>
+        <v>4.8570000000000002</v>
       </c>
       <c r="E3" s="0">
-        <v>360.214</v>
+        <v>4.9169999999999998</v>
       </c>
       <c r="F3" s="0">
-        <v>74.119</v>
+        <v>4.4660000000000002</v>
       </c>
       <c r="G3" s="0">
-        <v>126.77800000000001</v>
+        <v>6.4450000000000003</v>
       </c>
       <c r="H3" s="0">
-        <v>26.352</v>
+        <v>3</v>
       </c>
       <c r="I3" s="0">
-        <v>208.86099999999999</v>
+        <v>4.4420000000000002</v>
       </c>
       <c r="J3" s="0">
-        <v>202.69</v>
+        <v>4.2640000000000002</v>
       </c>
       <c r="K3" s="0">
-        <v>802.70899999999995</v>
+        <v>7.4299999999999997</v>
       </c>
       <c r="L3" s="0">
-        <v>7.6840000000000002</v>
+        <v>5.9509999999999996</v>
+      </c>
+      <c r="M3" s="0">
+        <v>2.0390000000000001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
-        <v>103</v>
+      <c r="A4" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="0">
         <v>23.827999999999999</v>
@@ -832,16 +470,16 @@
         <v>21.977</v>
       </c>
       <c r="D4" s="0">
-        <v>30.106999999999999</v>
+        <v>26.841000000000001</v>
       </c>
       <c r="E4" s="0">
         <v>12.705</v>
       </c>
       <c r="F4" s="0">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0">
-        <v>22.733000000000001</v>
+        <v>19</v>
       </c>
       <c r="H4" s="0">
         <v>23.117999999999999</v>
@@ -853,15 +491,18 @@
         <v>11.664</v>
       </c>
       <c r="K4" s="0">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="L4" s="0">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
-        <v>104</v>
+      <c r="A5" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="0">
         <v>3059.1900000000001</v>
@@ -894,44 +535,50 @@
         <v>3018</v>
       </c>
       <c r="L5" s="0">
+        <v>459</v>
+      </c>
+      <c r="M5" s="0">
         <v>574</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
-        <v>105</v>
+      <c r="A6" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I6" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L6" s="0">
+        <v>41</v>
+      </c>
+      <c r="M6" s="0">
         <v>26</v>
       </c>
     </row>
@@ -941,140 +588,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="true"/>
     <col min="2" max="2" width="9" customWidth="true"/>
     <col min="3" max="3" width="7.28515625" customWidth="true"/>
     <col min="4" max="4" width="11.85546875" customWidth="true"/>
-    <col min="5" max="5" width="7.7109375" customWidth="true"/>
+    <col min="5" max="5" width="7.140625" customWidth="true"/>
     <col min="6" max="6" width="8.5703125" customWidth="true"/>
     <col min="7" max="7" width="9.42578125" customWidth="true"/>
     <col min="8" max="8" width="7.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.5703125" customWidth="true"/>
     <col min="10" max="10" width="9.28515625" customWidth="true"/>
-    <col min="11" max="11" width="7.7109375" customWidth="true"/>
-    <col min="12" max="12" width="15.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>133</v>
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
-        <v>118</v>
+      <c r="A2" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16700000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="C2" s="0">
-        <v>0.13200000000000001</v>
+        <v>0.081000000000000003</v>
       </c>
       <c r="D2" s="0">
-        <v>0.16500000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="E2" s="0">
-        <v>0.14199999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="F2" s="0">
-        <v>0.153</v>
+        <v>0.112</v>
       </c>
       <c r="G2" s="0">
-        <v>0.124</v>
+        <v>0.114</v>
       </c>
       <c r="H2" s="0">
-        <v>0.156</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="I2" s="0">
-        <v>0.19700000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J2" s="0">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K2" s="0">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="L2" s="0">
-        <v>0.111</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>119</v>
+      <c r="A3" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="0">
-        <v>245.38200000000001</v>
+        <v>4.5800000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>68.703000000000003</v>
+        <v>3.3170000000000002</v>
       </c>
       <c r="D3" s="0">
-        <v>264.67700000000002</v>
+        <v>5.5949999999999998</v>
       </c>
       <c r="E3" s="0">
-        <v>108.81100000000001</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="F3" s="0">
-        <v>155.00700000000001</v>
+        <v>4.2119999999999997</v>
       </c>
       <c r="G3" s="0">
-        <v>70.384</v>
+        <v>4.2199999999999998</v>
       </c>
       <c r="H3" s="0">
-        <v>181.91399999999999</v>
+        <v>4.415</v>
       </c>
       <c r="I3" s="0">
-        <v>657.20799999999997</v>
+        <v>5.2869999999999999</v>
       </c>
       <c r="J3" s="0">
-        <v>202.69</v>
-      </c>
-      <c r="K3" s="0">
-        <v>802.70899999999995</v>
-      </c>
-      <c r="L3" s="0">
-        <v>7.6840000000000002</v>
+        <v>4.2640000000000002</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>120</v>
+      <c r="A4" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -1103,16 +730,10 @@
       <c r="J4" s="0">
         <v>11.664</v>
       </c>
-      <c r="K4" s="0">
-        <v>31</v>
-      </c>
-      <c r="L4" s="0">
-        <v>113</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>121</v>
+      <c r="A5" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -1141,49 +762,37 @@
       <c r="J5" s="0">
         <v>4550</v>
       </c>
-      <c r="K5" s="0">
-        <v>3018</v>
-      </c>
-      <c r="L5" s="0">
-        <v>574</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
-        <v>122</v>
+      <c r="A6" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I6" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J6" s="0">
-        <v>31</v>
-      </c>
-      <c r="K6" s="0">
-        <v>31</v>
-      </c>
-      <c r="L6" s="0">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +801,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="true"/>
@@ -1205,235 +814,254 @@
     <col min="8" max="8" width="7.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.5703125" customWidth="true"/>
     <col min="10" max="10" width="9.28515625" customWidth="true"/>
-    <col min="11" max="11" width="7.7109375" customWidth="true"/>
-    <col min="12" max="12" width="15.85546875" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
+    <col min="12" max="12" width="20.28515625" customWidth="true"/>
+    <col min="13" max="13" width="20.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>150</v>
+      <c r="A1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>135</v>
+      <c r="A2" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="0">
-        <v>0.38500000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="C2" s="0">
+        <v>0.129</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.218</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.218</v>
+      </c>
+      <c r="G2" s="0">
         <v>0.29999999999999999</v>
       </c>
-      <c r="D2" s="0">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G2" s="0">
-        <v>-1.089</v>
-      </c>
       <c r="H2" s="0">
-        <v>-1.048</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="I2" s="0">
-        <v>-1.0880000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.98899999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="K2" s="0">
-        <v>0.30099999999999999</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="L2" s="0">
-        <v>0.34599999999999997</v>
+        <v>0.222</v>
+      </c>
+      <c r="M2" s="0">
+        <v>0.123</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
-        <v>136</v>
+      <c r="A3" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="0">
-        <v>983.81500000000005</v>
+        <v>7.9610000000000003</v>
       </c>
       <c r="C3" s="0">
-        <v>50.798000000000002</v>
+        <v>4.5140000000000002</v>
       </c>
       <c r="D3" s="0">
-        <v>51.718000000000004</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0">
-        <v>51.817999999999998</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="F3" s="0">
-        <v>51.307000000000002</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="G3" s="0">
-        <v>50.003999999999998</v>
+        <v>10</v>
       </c>
       <c r="H3" s="0">
-        <v>50.014000000000003</v>
+        <v>9.0920000000000005</v>
       </c>
       <c r="I3" s="0">
-        <v>50.003</v>
+        <v>7.5549999999999997</v>
       </c>
       <c r="J3" s="0">
-        <v>50.003</v>
+        <v>8.891</v>
       </c>
       <c r="K3" s="0">
-        <v>51.664000000000001</v>
+        <v>10</v>
       </c>
       <c r="L3" s="0">
-        <v>46.810000000000002</v>
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="M3" s="0">
+        <v>2.383</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
-        <v>137</v>
+      <c r="A4" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="0">
-        <v>789.95399999999995</v>
+        <v>23.827999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>84.215999999999994</v>
+        <v>21.977</v>
       </c>
       <c r="D4" s="0">
-        <v>125.752</v>
+        <v>26.841000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>154.226</v>
+        <v>24.937999999999999</v>
       </c>
       <c r="F4" s="0">
-        <v>103.69</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0">
-        <v>24.228000000000002</v>
+        <v>19</v>
       </c>
       <c r="H4" s="0">
-        <v>24.571000000000002</v>
+        <v>23.117999999999999</v>
       </c>
       <c r="I4" s="0">
-        <v>24.783000000000001</v>
+        <v>23.088000000000001</v>
       </c>
       <c r="J4" s="0">
-        <v>13.077999999999999</v>
+        <v>11.664</v>
       </c>
       <c r="K4" s="0">
-        <v>82.272999999999996</v>
+        <v>14</v>
       </c>
       <c r="L4" s="0">
-        <v>318.07600000000002</v>
+        <v>2</v>
+      </c>
+      <c r="M4" s="0">
+        <v>113</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
-        <v>138</v>
+      <c r="A5" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="0">
-        <v>903.55700000000002</v>
+        <v>765.21900000000005</v>
       </c>
       <c r="C5" s="0">
-        <v>830.44600000000003</v>
+        <v>831.02300000000002</v>
       </c>
       <c r="D5" s="0">
-        <v>1085.479</v>
+        <v>1086.646</v>
       </c>
       <c r="E5" s="0">
-        <v>718.66999999999996</v>
+        <v>721.649</v>
       </c>
       <c r="F5" s="0">
-        <v>804.91899999999998</v>
+        <v>806</v>
       </c>
       <c r="G5" s="0">
-        <v>467.387</v>
+        <v>662.58900000000006</v>
       </c>
       <c r="H5" s="0">
-        <v>709.95600000000002</v>
+        <v>710</v>
       </c>
       <c r="I5" s="0">
-        <v>933.64800000000002</v>
+        <v>933.69100000000003</v>
       </c>
       <c r="J5" s="0">
-        <v>889.94200000000001</v>
+        <v>889.96100000000001</v>
       </c>
       <c r="K5" s="0">
-        <v>704.36099999999999</v>
+        <v>705</v>
       </c>
       <c r="L5" s="0">
-        <v>510.947</v>
+        <v>193</v>
+      </c>
+      <c r="M5" s="0">
+        <v>533</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="s">
-        <v>139</v>
+      <c r="A6" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I6" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L6" s="0">
+        <v>41</v>
+      </c>
+      <c r="M6" s="0">
         <v>26</v>
       </c>
     </row>
@@ -1443,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="true"/>
@@ -1457,126 +1085,136 @@
     <col min="9" max="9" width="11.5703125" customWidth="true"/>
     <col min="10" max="10" width="9.28515625" customWidth="true"/>
     <col min="11" max="11" width="8.140625" customWidth="true"/>
-    <col min="12" max="12" width="15.85546875" customWidth="true"/>
+    <col min="12" max="12" width="20.28515625" customWidth="true"/>
+    <col min="13" max="13" width="20.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>167</v>
+      <c r="A1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="s">
-        <v>152</v>
+      <c r="A2" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.035999999999999997</v>
       </c>
       <c r="C2" s="0">
-        <v>0.043999999999999997</v>
+        <v>0.031</v>
       </c>
       <c r="D2" s="0">
-        <v>0.039</v>
+        <v>0.036999999999999998</v>
       </c>
       <c r="E2" s="0">
-        <v>0.035000000000000003</v>
+        <v>0.032000000000000001</v>
       </c>
       <c r="F2" s="0">
-        <v>0.034000000000000002</v>
+        <v>0.032000000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>0.027</v>
+        <v>0.028000000000000001</v>
       </c>
       <c r="H2" s="0">
-        <v>0.035999999999999997</v>
+        <v>0.033000000000000002</v>
       </c>
       <c r="I2" s="0">
-        <v>0.047</v>
+        <v>0.042000000000000003</v>
       </c>
       <c r="J2" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.041000000000000002</v>
       </c>
       <c r="K2" s="0">
-        <v>0.051999999999999998</v>
+        <v>0.052999999999999999</v>
       </c>
       <c r="L2" s="0">
+        <v>0.052999999999999999</v>
+      </c>
+      <c r="M2" s="0">
         <v>0.017000000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
-        <v>153</v>
+      <c r="A3" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="B3" s="0">
-        <v>17.364000000000001</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="C3" s="0">
-        <v>16.056999999999999</v>
+        <v>2.6099999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>17.422000000000001</v>
+        <v>2.839</v>
       </c>
       <c r="E3" s="0">
-        <v>14.537000000000001</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>14.69</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>12.093999999999999</v>
+        <v>2.5329999999999999</v>
       </c>
       <c r="H3" s="0">
-        <v>15.617000000000001</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="I3" s="0">
-        <v>22.093</v>
+        <v>3.0169999999999999</v>
       </c>
       <c r="J3" s="0">
-        <v>19.905000000000001</v>
+        <v>2.8660000000000001</v>
       </c>
       <c r="K3" s="0">
-        <v>20.556999999999999</v>
+        <v>3.056</v>
       </c>
       <c r="L3" s="0">
-        <v>13.022</v>
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="M3" s="0">
+        <v>2.5670000000000002</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="s">
-        <v>154</v>
+      <c r="A4" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1611,10 +1249,13 @@
       <c r="L4" s="0">
         <v>1</v>
       </c>
+      <c r="M4" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="s">
-        <v>155</v>
+      <c r="A5" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1649,42 +1290,48 @@
       <c r="L5" s="0">
         <v>1000000</v>
       </c>
+      <c r="M5" s="0">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="s">
-        <v>156</v>
+      <c r="A6" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I6" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K6" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L6" s="0">
+        <v>41</v>
+      </c>
+      <c r="M6" s="0">
         <v>26</v>
       </c>
     </row>
@@ -1694,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="true"/>
@@ -1707,57 +1354,61 @@
     <col min="8" max="8" width="7.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.5703125" customWidth="true"/>
     <col min="10" max="10" width="9.28515625" customWidth="true"/>
-    <col min="11" max="11" width="5.7109375" customWidth="true"/>
-    <col min="12" max="12" width="15.85546875" customWidth="true"/>
+    <col min="11" max="11" width="4.7109375" customWidth="true"/>
+    <col min="12" max="12" width="20.28515625" customWidth="true"/>
+    <col min="13" max="13" width="20.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>182</v>
+      <c r="A1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
-        <v>169</v>
+      <c r="A2" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="B2" s="0">
         <v>0.0060000000000000001</v>
       </c>
       <c r="C2" s="0">
-        <v>0.010999999999999999</v>
+        <v>0.0080000000000000002</v>
       </c>
       <c r="D2" s="0">
         <v>0.0060000000000000001</v>
@@ -1766,100 +1417,109 @@
         <v>0.0070000000000000001</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0060000000000000001</v>
+        <v>0.0070000000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>0.0050000000000000001</v>
+        <v>0.0040000000000000001</v>
       </c>
       <c r="H2" s="0">
-        <v>0.0060000000000000001</v>
+        <v>0.0070000000000000001</v>
       </c>
       <c r="I2" s="0">
         <v>0.0050000000000000001</v>
       </c>
       <c r="J2" s="0">
-        <v>0.0070000000000000001</v>
+        <v>0.0080000000000000002</v>
       </c>
       <c r="K2" s="0">
-        <v>0.0080000000000000002</v>
+        <v>0.01</v>
       </c>
       <c r="L2" s="0">
+        <v>0.062</v>
+      </c>
+      <c r="M2" s="0">
         <v>0.0030000000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>170</v>
+      <c r="A3" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="B3" s="0">
-        <v>0.94199999999999995</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="C3" s="0">
-        <v>0.97099999999999997</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D3" s="0">
         <v>0.94799999999999995</v>
       </c>
       <c r="E3" s="0">
-        <v>0.94099999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F3" s="0">
-        <v>0.93700000000000006</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="G3" s="0">
-        <v>0.90800000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="H3" s="0">
-        <v>0.94299999999999995</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="I3" s="0">
-        <v>0.95099999999999996</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="J3" s="0">
-        <v>0.95899999999999996</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="K3" s="0">
-        <v>0.95199999999999996</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="L3" s="0">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="M3" s="0">
         <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
-        <v>171</v>
+      <c r="A4" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D4" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H4" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I4" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J4" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K4" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L4" s="0">
+        <v>41</v>
+      </c>
+      <c r="M4" s="0">
         <v>26</v>
       </c>
     </row>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -18,7 +18,262 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -338,48 +593,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B2" s="0">
         <v>0.11600000000000001</v>
@@ -420,7 +675,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B3" s="0">
         <v>3.694</v>
@@ -461,7 +716,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B4" s="0">
         <v>23.827999999999999</v>
@@ -502,7 +757,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B5" s="0">
         <v>3059.1900000000001</v>
@@ -543,7 +798,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -605,39 +860,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B2" s="0">
         <v>0.12</v>
@@ -669,7 +924,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B3" s="0">
         <v>4.5800000000000001</v>
@@ -701,7 +956,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -733,7 +988,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -765,7 +1020,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -821,48 +1076,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B2" s="0">
         <v>0.23899999999999999</v>
@@ -903,7 +1158,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B3" s="0">
         <v>7.9610000000000003</v>
@@ -944,7 +1199,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B4" s="0">
         <v>23.827999999999999</v>
@@ -985,7 +1240,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B5" s="0">
         <v>765.21900000000005</v>
@@ -1026,7 +1281,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -1091,48 +1346,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B2" s="0">
         <v>0.035999999999999997</v>
@@ -1173,7 +1428,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="B3" s="0">
         <v>2.7919999999999998</v>
@@ -1214,7 +1469,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1255,7 +1510,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1296,7 +1551,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -1361,48 +1616,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="B2" s="0">
         <v>0.0060000000000000001</v>
@@ -1443,7 +1698,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="B3" s="0">
         <v>0.94499999999999995</v>
@@ -1484,7 +1739,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="B4" s="0">
         <v>37</v>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Estimated Bounds Model" sheetId="4" r:id="rId6"/>
     <sheet name="Theoretical Bounds Model" sheetId="5" r:id="rId7"/>
     <sheet name="Weibull Model" sheetId="6" r:id="rId8"/>
+    <sheet name="Estimated Bounds Model v2" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t>Var1</t>
   </si>
@@ -372,6 +373,315 @@
   </si>
   <si>
     <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
   </si>
   <si>
     <t>Var1</t>
@@ -593,48 +903,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="B2" s="0">
         <v>0.11600000000000001</v>
@@ -675,7 +985,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B3" s="0">
         <v>3.694</v>
@@ -716,7 +1026,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="B4" s="0">
         <v>23.827999999999999</v>
@@ -757,7 +1067,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B5" s="0">
         <v>3059.1900000000001</v>
@@ -798,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -860,39 +1170,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="B2" s="0">
         <v>0.12</v>
@@ -924,7 +1234,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="B3" s="0">
         <v>4.5800000000000001</v>
@@ -956,7 +1266,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -988,7 +1298,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -1020,7 +1330,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -1076,48 +1386,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="B2" s="0">
         <v>0.23899999999999999</v>
@@ -1126,7 +1436,7 @@
         <v>0.129</v>
       </c>
       <c r="D2" s="0">
-        <v>0.32500000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E2" s="0">
         <v>0.218</v>
@@ -1135,7 +1445,7 @@
         <v>0.218</v>
       </c>
       <c r="G2" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H2" s="0">
         <v>0.27200000000000002</v>
@@ -1147,7 +1457,7 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="K2" s="0">
-        <v>0.32300000000000001</v>
+        <v>0.624</v>
       </c>
       <c r="L2" s="0">
         <v>0.222</v>
@@ -1158,7 +1468,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="B3" s="0">
         <v>7.9610000000000003</v>
@@ -1167,7 +1477,7 @@
         <v>4.5140000000000002</v>
       </c>
       <c r="D3" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0">
         <v>7.0330000000000004</v>
@@ -1176,7 +1486,7 @@
         <v>7.0659999999999998</v>
       </c>
       <c r="G3" s="0">
-        <v>10</v>
+        <v>18.277999999999999</v>
       </c>
       <c r="H3" s="0">
         <v>9.0920000000000005</v>
@@ -1188,7 +1498,7 @@
         <v>8.891</v>
       </c>
       <c r="K3" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L3" s="0">
         <v>7.2160000000000002</v>
@@ -1199,7 +1509,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="B4" s="0">
         <v>23.827999999999999</v>
@@ -1240,7 +1550,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="B5" s="0">
         <v>765.21900000000005</v>
@@ -1281,7 +1591,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -1346,48 +1656,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="B2" s="0">
         <v>0.035999999999999997</v>
@@ -1428,7 +1738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="B3" s="0">
         <v>2.7919999999999998</v>
@@ -1469,7 +1779,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1510,7 +1820,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1551,7 +1861,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -1616,48 +1926,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="B2" s="0">
         <v>0.0060000000000000001</v>
@@ -1698,7 +2008,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B3" s="0">
         <v>0.94499999999999995</v>
@@ -1739,7 +2049,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="B4" s="0">
         <v>37</v>
@@ -1775,6 +2085,276 @@
         <v>41</v>
       </c>
       <c r="M4" s="0">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="true"/>
+    <col min="2" max="2" width="9" customWidth="true"/>
+    <col min="3" max="3" width="8.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.85546875" customWidth="true"/>
+    <col min="5" max="5" width="8.7109375" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+    <col min="7" max="7" width="9.42578125" customWidth="true"/>
+    <col min="8" max="8" width="8.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.5703125" customWidth="true"/>
+    <col min="10" max="10" width="9.28515625" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
+    <col min="12" max="12" width="20.28515625" customWidth="true"/>
+    <col min="13" max="13" width="20.28515625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.123</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.082000000000000003</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.104</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0.123</v>
+      </c>
+      <c r="K2" s="0">
+        <v>0.247</v>
+      </c>
+      <c r="L2" s="0">
+        <v>0.188</v>
+      </c>
+      <c r="M2" s="0">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="0">
+        <v>4.1639999999999997</v>
+      </c>
+      <c r="C3" s="0">
+        <v>2.8919999999999999</v>
+      </c>
+      <c r="D3" s="0">
+        <v>5.4569999999999999</v>
+      </c>
+      <c r="E3" s="0">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="F3" s="0">
+        <v>4.9379999999999997</v>
+      </c>
+      <c r="G3" s="0">
+        <v>6.9720000000000004</v>
+      </c>
+      <c r="H3" s="0">
+        <v>3.52</v>
+      </c>
+      <c r="I3" s="0">
+        <v>4.8739999999999997</v>
+      </c>
+      <c r="J3" s="0">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="K3" s="0">
+        <v>7.9500000000000002</v>
+      </c>
+      <c r="L3" s="0">
+        <v>6.367</v>
+      </c>
+      <c r="M3" s="0">
+        <v>2.4049999999999998</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="0">
+        <v>23.827999999999999</v>
+      </c>
+      <c r="C4" s="0">
+        <v>21.977</v>
+      </c>
+      <c r="D4" s="0">
+        <v>26.841000000000001</v>
+      </c>
+      <c r="E4" s="0">
+        <v>24.937999999999999</v>
+      </c>
+      <c r="F4" s="0">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0">
+        <v>23.117999999999999</v>
+      </c>
+      <c r="I4" s="0">
+        <v>23.088000000000001</v>
+      </c>
+      <c r="J4" s="0">
+        <v>11.664</v>
+      </c>
+      <c r="K4" s="0">
+        <v>14</v>
+      </c>
+      <c r="L4" s="0">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="0">
+        <v>3059.1900000000001</v>
+      </c>
+      <c r="C5" s="0">
+        <v>3643.7660000000001</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2496.5520000000001</v>
+      </c>
+      <c r="E5" s="0">
+        <v>2671.0410000000002</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1812</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1775.0540000000001</v>
+      </c>
+      <c r="H5" s="0">
+        <v>4458.1490000000003</v>
+      </c>
+      <c r="I5" s="0">
+        <v>3066.9549999999999</v>
+      </c>
+      <c r="J5" s="0">
+        <v>4550</v>
+      </c>
+      <c r="K5" s="0">
+        <v>3018</v>
+      </c>
+      <c r="L5" s="0">
+        <v>459</v>
+      </c>
+      <c r="M5" s="0">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="0">
+        <v>37</v>
+      </c>
+      <c r="C6" s="0">
+        <v>27</v>
+      </c>
+      <c r="D6" s="0">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0">
+        <v>36</v>
+      </c>
+      <c r="F6" s="0">
+        <v>37</v>
+      </c>
+      <c r="G6" s="0">
+        <v>37</v>
+      </c>
+      <c r="H6" s="0">
+        <v>35</v>
+      </c>
+      <c r="I6" s="0">
+        <v>36</v>
+      </c>
+      <c r="J6" s="0">
+        <v>37</v>
+      </c>
+      <c r="K6" s="0">
+        <v>37</v>
+      </c>
+      <c r="L6" s="0">
+        <v>41</v>
+      </c>
+      <c r="M6" s="0">
         <v>26</v>
       </c>
     </row>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
     <t>Var1</t>
   </si>
@@ -373,6 +373,624 @@
   </si>
   <si>
     <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>All Cities</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
   </si>
   <si>
     <t>Var1</t>
@@ -903,48 +1521,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>176</v>
+        <v>382</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>180</v>
+        <v>386</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>182</v>
+        <v>388</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>185</v>
+        <v>391</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>186</v>
+        <v>392</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>187</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>171</v>
+        <v>377</v>
       </c>
       <c r="B2" s="0">
         <v>0.11600000000000001</v>
@@ -985,7 +1603,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="B3" s="0">
         <v>3.694</v>
@@ -1026,7 +1644,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>173</v>
+        <v>379</v>
       </c>
       <c r="B4" s="0">
         <v>23.827999999999999</v>
@@ -1067,7 +1685,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="B5" s="0">
         <v>3059.1900000000001</v>
@@ -1108,7 +1726,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>175</v>
+        <v>381</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -1170,39 +1788,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>188</v>
+        <v>394</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>194</v>
+        <v>400</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>195</v>
+        <v>401</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>196</v>
+        <v>402</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>197</v>
+        <v>403</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>198</v>
+        <v>404</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>199</v>
+        <v>405</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>200</v>
+        <v>406</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>201</v>
+        <v>407</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>202</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="B2" s="0">
         <v>0.12</v>
@@ -1234,7 +1852,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>190</v>
+        <v>396</v>
       </c>
       <c r="B3" s="0">
         <v>4.5800000000000001</v>
@@ -1266,7 +1884,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>191</v>
+        <v>397</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -1298,7 +1916,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>192</v>
+        <v>398</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -1330,7 +1948,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>193</v>
+        <v>399</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -1386,48 +2004,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>203</v>
+        <v>409</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>210</v>
+        <v>416</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>211</v>
+        <v>417</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>212</v>
+        <v>418</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>213</v>
+        <v>419</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>214</v>
+        <v>420</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>215</v>
+        <v>421</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>216</v>
+        <v>422</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>217</v>
+        <v>423</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>218</v>
+        <v>424</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>219</v>
+        <v>425</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>220</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>204</v>
+        <v>410</v>
       </c>
       <c r="B2" s="0">
         <v>0.23899999999999999</v>
@@ -1436,7 +2054,7 @@
         <v>0.129</v>
       </c>
       <c r="D2" s="0">
-        <v>0.64600000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E2" s="0">
         <v>0.218</v>
@@ -1445,7 +2063,7 @@
         <v>0.218</v>
       </c>
       <c r="G2" s="0">
-        <v>0.54300000000000004</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="H2" s="0">
         <v>0.27200000000000002</v>
@@ -1457,7 +2075,7 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="K2" s="0">
-        <v>0.624</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="L2" s="0">
         <v>0.222</v>
@@ -1468,7 +2086,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>205</v>
+        <v>411</v>
       </c>
       <c r="B3" s="0">
         <v>7.9610000000000003</v>
@@ -1477,7 +2095,7 @@
         <v>4.5140000000000002</v>
       </c>
       <c r="D3" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0">
         <v>7.0330000000000004</v>
@@ -1486,7 +2104,7 @@
         <v>7.0659999999999998</v>
       </c>
       <c r="G3" s="0">
-        <v>18.277999999999999</v>
+        <v>10</v>
       </c>
       <c r="H3" s="0">
         <v>9.0920000000000005</v>
@@ -1498,7 +2116,7 @@
         <v>8.891</v>
       </c>
       <c r="K3" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L3" s="0">
         <v>7.2160000000000002</v>
@@ -1509,7 +2127,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="B4" s="0">
         <v>23.827999999999999</v>
@@ -1550,7 +2168,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>207</v>
+        <v>413</v>
       </c>
       <c r="B5" s="0">
         <v>765.21900000000005</v>
@@ -1591,7 +2209,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>208</v>
+        <v>414</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -1656,48 +2274,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>239</v>
+        <v>445</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>245</v>
+        <v>451</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>247</v>
+        <v>453</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>248</v>
+        <v>454</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>249</v>
+        <v>455</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>251</v>
+        <v>457</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>252</v>
+        <v>458</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>253</v>
+        <v>459</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>254</v>
+        <v>460</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>255</v>
+        <v>461</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>256</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>240</v>
+        <v>446</v>
       </c>
       <c r="B2" s="0">
         <v>0.035999999999999997</v>
@@ -1738,7 +2356,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>241</v>
+        <v>447</v>
       </c>
       <c r="B3" s="0">
         <v>2.7919999999999998</v>
@@ -1779,7 +2397,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>242</v>
+        <v>448</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1820,7 +2438,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>243</v>
+        <v>449</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1861,7 +2479,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>244</v>
+        <v>450</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>
@@ -1926,48 +2544,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>257</v>
+        <v>463</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>262</v>
+        <v>468</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>263</v>
+        <v>469</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>264</v>
+        <v>470</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>265</v>
+        <v>471</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>266</v>
+        <v>472</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>267</v>
+        <v>473</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>268</v>
+        <v>474</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>269</v>
+        <v>475</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>270</v>
+        <v>476</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>271</v>
+        <v>477</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>272</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>258</v>
+        <v>464</v>
       </c>
       <c r="B2" s="0">
         <v>0.0060000000000000001</v>
@@ -2008,7 +2626,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>259</v>
+        <v>465</v>
       </c>
       <c r="B3" s="0">
         <v>0.94499999999999995</v>
@@ -2049,7 +2667,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>260</v>
+        <v>466</v>
       </c>
       <c r="B4" s="0">
         <v>37</v>
@@ -2114,48 +2732,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>221</v>
+        <v>427</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>227</v>
+        <v>433</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>228</v>
+        <v>434</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>229</v>
+        <v>435</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>232</v>
+        <v>438</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>233</v>
+        <v>439</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>234</v>
+        <v>440</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>235</v>
+        <v>441</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>236</v>
+        <v>442</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>237</v>
+        <v>443</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>238</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="B2" s="0">
         <v>0.123</v>
@@ -2196,7 +2814,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>223</v>
+        <v>429</v>
       </c>
       <c r="B3" s="0">
         <v>4.1639999999999997</v>
@@ -2237,7 +2855,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>224</v>
+        <v>430</v>
       </c>
       <c r="B4" s="0">
         <v>23.827999999999999</v>
@@ -2278,7 +2896,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>225</v>
+        <v>431</v>
       </c>
       <c r="B5" s="0">
         <v>3059.1900000000001</v>
@@ -2319,7 +2937,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>226</v>
+        <v>432</v>
       </c>
       <c r="B6" s="0">
         <v>37</v>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,18 +10,18 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51264D74-51AC-4340-86A4-988255E02BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Means" sheetId="2" r:id="rId1"/>
     <sheet name="Range" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>1898-1907</t>
   </si>
@@ -279,6 +279,522 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>3644-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>3644-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -299,7 +815,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -307,12 +823,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,237 +1151,240 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="true"/>
+    <col min="2" max="2" width="9.85546875" customWidth="true"/>
+    <col min="4" max="4" width="8" customWidth="true"/>
+    <col min="5" max="5" width="7.85546875" customWidth="true"/>
+    <col min="7" max="7" width="9.85546875" customWidth="true"/>
+    <col min="3" max="3" width="9.85546875" customWidth="true"/>
+    <col min="6" max="6" width="7.85546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0">
         <v>85</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>3644</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>370</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>210</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="0">
         <v>179</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>154</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>1832</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>405</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>247</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="0">
         <v>114</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>290</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>1859</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>315</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>222</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="0">
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>83</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>1696</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>334</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>221</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="0">
         <v>152</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>114</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>1631</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>240</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>195</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="0">
         <v>233</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>187</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>2803</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>333</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>245</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="0">
         <v>204</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>170</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>2268</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>431</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>290</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="0">
         <v>131</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>102</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>2825</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>436</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>249</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="0">
         <v>213</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>156</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>1571</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>316</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>223</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>80</v>
       </c>
     </row>
@@ -876,247 +1397,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="true"/>
+    <col min="2" max="2" width="9.85546875" customWidth="true"/>
+    <col min="5" max="5" width="8.85546875" customWidth="true"/>
+    <col min="6" max="6" width="7.85546875" customWidth="true"/>
+    <col min="7" max="7" width="9.85546875" customWidth="true"/>
+    <col min="3" max="3" width="9.85546875" customWidth="true"/>
+    <col min="4" max="4" width="9.85546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>1898-1907</t>
   </si>
@@ -795,6 +795,546 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>3644-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Englans &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>169-504</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>996-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>29-333</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Englans &amp; Wales</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1162,37 +1702,37 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>178</v>
+        <v>350</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>176</v>
+        <v>348</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>177</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>179</v>
+        <v>351</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
         <v>85</v>
       </c>
       <c r="D3" s="0">
-        <v>3644</v>
+        <v>2320</v>
       </c>
       <c r="E3" s="0">
         <v>370</v>
@@ -1206,7 +1746,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>180</v>
+        <v>352</v>
       </c>
       <c r="B4" s="0">
         <v>179</v>
@@ -1229,7 +1769,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>181</v>
+        <v>353</v>
       </c>
       <c r="B5" s="0">
         <v>114</v>
@@ -1252,7 +1792,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
       <c r="B6" s="0">
         <v>150</v>
@@ -1275,7 +1815,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>183</v>
+        <v>355</v>
       </c>
       <c r="B7" s="0">
         <v>152</v>
@@ -1298,7 +1838,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>184</v>
+        <v>356</v>
       </c>
       <c r="B8" s="0">
         <v>233</v>
@@ -1321,7 +1861,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="B9" s="0">
         <v>204</v>
@@ -1344,7 +1884,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>186</v>
+        <v>358</v>
       </c>
       <c r="B10" s="0">
         <v>131</v>
@@ -1367,7 +1907,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>187</v>
+        <v>359</v>
       </c>
       <c r="B11" s="0">
         <v>213</v>
@@ -1386,6 +1926,29 @@
       </c>
       <c r="G11" s="0">
         <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" s="0">
+        <v>263</v>
+      </c>
+      <c r="C12" s="0">
+        <v>209</v>
+      </c>
+      <c r="D12" s="0">
+        <v>2283</v>
+      </c>
+      <c r="E12" s="0">
+        <v>385</v>
+      </c>
+      <c r="F12" s="0">
+        <v>264</v>
+      </c>
+      <c r="G12" s="0">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1958,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -1414,232 +1977,255 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>248</v>
+        <v>427</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>361</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>198</v>
+        <v>372</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>208</v>
+        <v>383</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>218</v>
+        <v>394</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>228</v>
+        <v>405</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>238</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>249</v>
+        <v>428</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>189</v>
+        <v>362</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>199</v>
+        <v>373</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>209</v>
+        <v>384</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>219</v>
+        <v>395</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>229</v>
+        <v>406</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>239</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>250</v>
+        <v>429</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>190</v>
+        <v>363</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>200</v>
+        <v>374</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>210</v>
+        <v>385</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>230</v>
+        <v>407</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>240</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>201</v>
+        <v>375</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>211</v>
+        <v>386</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>221</v>
+        <v>397</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>231</v>
+        <v>408</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>241</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>252</v>
+        <v>431</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>192</v>
+        <v>365</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>202</v>
+        <v>376</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>212</v>
+        <v>387</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>222</v>
+        <v>398</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>232</v>
+        <v>409</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>242</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>253</v>
+        <v>432</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>193</v>
+        <v>366</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>203</v>
+        <v>377</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>213</v>
+        <v>388</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>223</v>
+        <v>399</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>233</v>
+        <v>410</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>243</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>194</v>
+        <v>367</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>234</v>
+        <v>411</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>244</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>255</v>
+        <v>434</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>205</v>
+        <v>379</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>215</v>
+        <v>390</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>225</v>
+        <v>401</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>235</v>
+        <v>412</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>245</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>256</v>
+        <v>435</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>196</v>
+        <v>369</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>206</v>
+        <v>380</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>216</v>
+        <v>391</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>226</v>
+        <v>402</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>236</v>
+        <v>413</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>246</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>257</v>
+        <v>436</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>197</v>
+        <v>370</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>217</v>
+        <v>392</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>227</v>
+        <v>403</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>247</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <si>
     <t>1898-1907</t>
   </si>
@@ -1053,6 +1053,288 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Englans &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>169-504</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>996-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>29-333</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Englans &amp; Wales</t>
   </si>
   <si>
     <t>1898-1907</t>
@@ -1702,30 +1984,30 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>346</v>
+        <v>440</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>347</v>
+        <v>441</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>348</v>
+        <v>442</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -1746,7 +2028,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="B4" s="0">
         <v>179</v>
@@ -1769,7 +2051,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="B5" s="0">
         <v>114</v>
@@ -1792,7 +2074,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="B6" s="0">
         <v>150</v>
@@ -1815,7 +2097,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
       <c r="B7" s="0">
         <v>152</v>
@@ -1838,7 +2120,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="B8" s="0">
         <v>233</v>
@@ -1861,7 +2143,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
       <c r="B9" s="0">
         <v>204</v>
@@ -1884,7 +2166,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="B10" s="0">
         <v>131</v>
@@ -1907,7 +2189,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
       <c r="B11" s="0">
         <v>213</v>
@@ -1930,7 +2212,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>360</v>
+        <v>454</v>
       </c>
       <c r="B12" s="0">
         <v>263</v>
@@ -1977,255 +2259,255 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>427</v>
+        <v>521</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>361</v>
+        <v>455</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>372</v>
+        <v>466</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>383</v>
+        <v>477</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>394</v>
+        <v>488</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>405</v>
+        <v>499</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>416</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>428</v>
+        <v>522</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>384</v>
+        <v>478</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>395</v>
+        <v>489</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>417</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>429</v>
+        <v>523</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>363</v>
+        <v>457</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>385</v>
+        <v>479</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>396</v>
+        <v>490</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>430</v>
+        <v>524</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>375</v>
+        <v>469</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>386</v>
+        <v>480</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>431</v>
+        <v>525</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>365</v>
+        <v>459</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>376</v>
+        <v>470</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>387</v>
+        <v>481</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>398</v>
+        <v>492</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>409</v>
+        <v>503</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>399</v>
+        <v>493</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>410</v>
+        <v>504</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>433</v>
+        <v>527</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>411</v>
+        <v>505</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>434</v>
+        <v>528</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>368</v>
+        <v>462</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>379</v>
+        <v>473</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>390</v>
+        <v>484</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>401</v>
+        <v>495</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>412</v>
+        <v>506</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>435</v>
+        <v>529</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>369</v>
+        <v>463</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>380</v>
+        <v>474</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>391</v>
+        <v>485</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>402</v>
+        <v>496</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>413</v>
+        <v>507</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>424</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>436</v>
+        <v>530</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>370</v>
+        <v>464</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>381</v>
+        <v>475</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>403</v>
+        <v>497</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>414</v>
+        <v>508</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>425</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>437</v>
+        <v>531</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>371</v>
+        <v>465</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>382</v>
+        <v>476</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>393</v>
+        <v>487</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>404</v>
+        <v>498</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>426</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="626">
   <si>
     <t>1898-1907</t>
   </si>
@@ -1617,6 +1617,288 @@
   </si>
   <si>
     <t>Englans &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>169-504</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>996-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>29-333</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
   </si>
 </sst>
 </file>
@@ -1984,30 +2266,30 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>444</v>
+        <v>538</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>438</v>
+        <v>532</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>439</v>
+        <v>533</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>440</v>
+        <v>534</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>441</v>
+        <v>535</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>442</v>
+        <v>536</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>443</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>445</v>
+        <v>539</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -2028,7 +2310,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>446</v>
+        <v>540</v>
       </c>
       <c r="B4" s="0">
         <v>179</v>
@@ -2051,7 +2333,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>447</v>
+        <v>541</v>
       </c>
       <c r="B5" s="0">
         <v>114</v>
@@ -2074,7 +2356,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>448</v>
+        <v>542</v>
       </c>
       <c r="B6" s="0">
         <v>150</v>
@@ -2097,7 +2379,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>449</v>
+        <v>543</v>
       </c>
       <c r="B7" s="0">
         <v>152</v>
@@ -2120,7 +2402,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="B8" s="0">
         <v>233</v>
@@ -2143,7 +2425,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>451</v>
+        <v>545</v>
       </c>
       <c r="B9" s="0">
         <v>204</v>
@@ -2166,7 +2448,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="B10" s="0">
         <v>131</v>
@@ -2189,7 +2471,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>453</v>
+        <v>547</v>
       </c>
       <c r="B11" s="0">
         <v>213</v>
@@ -2212,7 +2494,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>454</v>
+        <v>548</v>
       </c>
       <c r="B12" s="0">
         <v>263</v>
@@ -2259,255 +2541,255 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>521</v>
+        <v>615</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>455</v>
+        <v>549</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>466</v>
+        <v>560</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>477</v>
+        <v>571</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>510</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>456</v>
+        <v>550</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>467</v>
+        <v>561</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>478</v>
+        <v>572</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>489</v>
+        <v>583</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>511</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>457</v>
+        <v>551</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>468</v>
+        <v>562</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>479</v>
+        <v>573</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>501</v>
+        <v>595</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>512</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>524</v>
+        <v>618</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>458</v>
+        <v>552</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>469</v>
+        <v>563</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>480</v>
+        <v>574</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>502</v>
+        <v>596</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>513</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>525</v>
+        <v>619</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>470</v>
+        <v>564</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>492</v>
+        <v>586</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>503</v>
+        <v>597</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>514</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>471</v>
+        <v>565</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>482</v>
+        <v>576</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>504</v>
+        <v>598</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>515</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>472</v>
+        <v>566</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>494</v>
+        <v>588</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>516</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>528</v>
+        <v>622</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>462</v>
+        <v>556</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>473</v>
+        <v>567</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>484</v>
+        <v>578</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>495</v>
+        <v>589</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>506</v>
+        <v>600</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>517</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>529</v>
+        <v>623</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>463</v>
+        <v>557</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>474</v>
+        <v>568</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>485</v>
+        <v>579</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>507</v>
+        <v>601</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>518</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>464</v>
+        <v>558</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>475</v>
+        <v>569</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>486</v>
+        <v>580</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>497</v>
+        <v>591</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>508</v>
+        <v>602</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>519</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>465</v>
+        <v>559</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>476</v>
+        <v>570</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>498</v>
+        <v>592</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>509</v>
+        <v>603</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>520</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="720">
   <si>
     <t>1898-1907</t>
   </si>
@@ -1617,6 +1617,288 @@
   </si>
   <si>
     <t>Englans &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>169-504</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>996-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>29-333</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
   </si>
   <si>
     <t>1898-1907</t>
@@ -2266,30 +2548,30 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>532</v>
+        <v>626</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>537</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -2310,7 +2592,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
       <c r="B4" s="0">
         <v>179</v>
@@ -2333,7 +2615,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>541</v>
+        <v>635</v>
       </c>
       <c r="B5" s="0">
         <v>114</v>
@@ -2356,7 +2638,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>542</v>
+        <v>636</v>
       </c>
       <c r="B6" s="0">
         <v>150</v>
@@ -2379,7 +2661,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>543</v>
+        <v>637</v>
       </c>
       <c r="B7" s="0">
         <v>152</v>
@@ -2402,7 +2684,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>544</v>
+        <v>638</v>
       </c>
       <c r="B8" s="0">
         <v>233</v>
@@ -2425,7 +2707,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>545</v>
+        <v>639</v>
       </c>
       <c r="B9" s="0">
         <v>204</v>
@@ -2448,7 +2730,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>546</v>
+        <v>640</v>
       </c>
       <c r="B10" s="0">
         <v>131</v>
@@ -2471,7 +2753,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>547</v>
+        <v>641</v>
       </c>
       <c r="B11" s="0">
         <v>213</v>
@@ -2494,7 +2776,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>548</v>
+        <v>642</v>
       </c>
       <c r="B12" s="0">
         <v>263</v>
@@ -2541,255 +2823,255 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>615</v>
+        <v>709</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>549</v>
+        <v>643</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>571</v>
+        <v>665</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>582</v>
+        <v>676</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>593</v>
+        <v>687</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>604</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>616</v>
+        <v>710</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>550</v>
+        <v>644</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>561</v>
+        <v>655</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>572</v>
+        <v>666</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>583</v>
+        <v>677</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>594</v>
+        <v>688</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>605</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>617</v>
+        <v>711</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>551</v>
+        <v>645</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>573</v>
+        <v>667</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>584</v>
+        <v>678</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>595</v>
+        <v>689</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>606</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>618</v>
+        <v>712</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>552</v>
+        <v>646</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>563</v>
+        <v>657</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>574</v>
+        <v>668</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>585</v>
+        <v>679</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>596</v>
+        <v>690</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>607</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>619</v>
+        <v>713</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>553</v>
+        <v>647</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>564</v>
+        <v>658</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>575</v>
+        <v>669</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>586</v>
+        <v>680</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>597</v>
+        <v>691</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>608</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>620</v>
+        <v>714</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>554</v>
+        <v>648</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>576</v>
+        <v>670</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>587</v>
+        <v>681</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>598</v>
+        <v>692</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>609</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>621</v>
+        <v>715</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>555</v>
+        <v>649</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>566</v>
+        <v>660</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>577</v>
+        <v>671</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>588</v>
+        <v>682</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>599</v>
+        <v>693</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>610</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>556</v>
+        <v>650</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>567</v>
+        <v>661</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>578</v>
+        <v>672</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>589</v>
+        <v>683</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>600</v>
+        <v>694</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>611</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>623</v>
+        <v>717</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>557</v>
+        <v>651</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>568</v>
+        <v>662</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>579</v>
+        <v>673</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>590</v>
+        <v>684</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>601</v>
+        <v>695</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>612</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>558</v>
+        <v>652</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>569</v>
+        <v>663</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>580</v>
+        <v>674</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>591</v>
+        <v>685</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>602</v>
+        <v>696</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>613</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>625</v>
+        <v>719</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>559</v>
+        <v>653</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>570</v>
+        <v>664</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>581</v>
+        <v>675</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>592</v>
+        <v>686</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>603</v>
+        <v>697</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>614</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="814">
   <si>
     <t>1898-1907</t>
   </si>
@@ -1617,6 +1617,288 @@
   </si>
   <si>
     <t>Englans &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>169-504</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>996-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>29-333</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
   </si>
   <si>
     <t>1898-1907</t>
@@ -2548,30 +2830,30 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>632</v>
+        <v>726</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>626</v>
+        <v>720</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>627</v>
+        <v>721</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>628</v>
+        <v>722</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>629</v>
+        <v>723</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>630</v>
+        <v>724</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>631</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>633</v>
+        <v>727</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -2592,7 +2874,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>634</v>
+        <v>728</v>
       </c>
       <c r="B4" s="0">
         <v>179</v>
@@ -2615,7 +2897,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>635</v>
+        <v>729</v>
       </c>
       <c r="B5" s="0">
         <v>114</v>
@@ -2638,7 +2920,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>636</v>
+        <v>730</v>
       </c>
       <c r="B6" s="0">
         <v>150</v>
@@ -2661,7 +2943,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>637</v>
+        <v>731</v>
       </c>
       <c r="B7" s="0">
         <v>152</v>
@@ -2684,7 +2966,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>638</v>
+        <v>732</v>
       </c>
       <c r="B8" s="0">
         <v>233</v>
@@ -2707,7 +2989,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>639</v>
+        <v>733</v>
       </c>
       <c r="B9" s="0">
         <v>204</v>
@@ -2730,7 +3012,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>640</v>
+        <v>734</v>
       </c>
       <c r="B10" s="0">
         <v>131</v>
@@ -2753,7 +3035,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>641</v>
+        <v>735</v>
       </c>
       <c r="B11" s="0">
         <v>213</v>
@@ -2776,7 +3058,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>642</v>
+        <v>736</v>
       </c>
       <c r="B12" s="0">
         <v>263</v>
@@ -2823,255 +3105,255 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>709</v>
+        <v>803</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>643</v>
+        <v>737</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>654</v>
+        <v>748</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>665</v>
+        <v>759</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>676</v>
+        <v>770</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>698</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>710</v>
+        <v>804</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>644</v>
+        <v>738</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>655</v>
+        <v>749</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>666</v>
+        <v>760</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>677</v>
+        <v>771</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>688</v>
+        <v>782</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>699</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>711</v>
+        <v>805</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>645</v>
+        <v>739</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>656</v>
+        <v>750</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>667</v>
+        <v>761</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>678</v>
+        <v>772</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>689</v>
+        <v>783</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>700</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>712</v>
+        <v>806</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>646</v>
+        <v>740</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>657</v>
+        <v>751</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>668</v>
+        <v>762</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>679</v>
+        <v>773</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>690</v>
+        <v>784</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>713</v>
+        <v>807</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>647</v>
+        <v>741</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>658</v>
+        <v>752</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>669</v>
+        <v>763</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>680</v>
+        <v>774</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>691</v>
+        <v>785</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>702</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>714</v>
+        <v>808</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>648</v>
+        <v>742</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>659</v>
+        <v>753</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>681</v>
+        <v>775</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>692</v>
+        <v>786</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>703</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>715</v>
+        <v>809</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>649</v>
+        <v>743</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>660</v>
+        <v>754</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>682</v>
+        <v>776</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>693</v>
+        <v>787</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>704</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>716</v>
+        <v>810</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>650</v>
+        <v>744</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>661</v>
+        <v>755</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>672</v>
+        <v>766</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>683</v>
+        <v>777</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>694</v>
+        <v>788</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>717</v>
+        <v>811</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>651</v>
+        <v>745</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>662</v>
+        <v>756</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>684</v>
+        <v>778</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>695</v>
+        <v>789</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>718</v>
+        <v>812</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>652</v>
+        <v>746</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>663</v>
+        <v>757</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>674</v>
+        <v>768</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>685</v>
+        <v>779</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>696</v>
+        <v>790</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>707</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>719</v>
+        <v>813</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>653</v>
+        <v>747</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>664</v>
+        <v>758</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>675</v>
+        <v>769</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>686</v>
+        <v>780</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>697</v>
+        <v>791</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>708</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_1.xlsx
+++ b/Figures/Table_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA0072-7C58-45BD-95EB-2F8FE7EA31FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="25950" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="25950" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Means" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
     <sheet name="Range" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="265">
   <si>
     <t>1898-1907</t>
   </si>
@@ -285,6 +285,288 @@
   </si>
   <si>
     <t>29-333</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales</t>
+  </si>
+  <si>
+    <t>1898-1907</t>
+  </si>
+  <si>
+    <t>NaN-NaN</t>
+  </si>
+  <si>
+    <t>102-358</t>
+  </si>
+  <si>
+    <t>13-205</t>
+  </si>
+  <si>
+    <t>77-273</t>
+  </si>
+  <si>
+    <t>61-356</t>
+  </si>
+  <si>
+    <t>140-431</t>
+  </si>
+  <si>
+    <t>112-440</t>
+  </si>
+  <si>
+    <t>81-169</t>
+  </si>
+  <si>
+    <t>102-365</t>
+  </si>
+  <si>
+    <t>169-504</t>
+  </si>
+  <si>
+    <t>1908-1917</t>
+  </si>
+  <si>
+    <t>63-98</t>
+  </si>
+  <si>
+    <t>94-312</t>
+  </si>
+  <si>
+    <t>72-1231</t>
+  </si>
+  <si>
+    <t>54-120</t>
+  </si>
+  <si>
+    <t>68-220</t>
+  </si>
+  <si>
+    <t>110-281</t>
+  </si>
+  <si>
+    <t>112-206</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>89-270</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>1918/19</t>
+  </si>
+  <si>
+    <t>996-3644</t>
+  </si>
+  <si>
+    <t>1167-2497</t>
+  </si>
+  <si>
+    <t>1047-2671</t>
+  </si>
+  <si>
+    <t>1580-1812</t>
+  </si>
+  <si>
+    <t>1487-1775</t>
+  </si>
+  <si>
+    <t>1147-4458</t>
+  </si>
+  <si>
+    <t>1468-3067</t>
+  </si>
+  <si>
+    <t>1100-4550</t>
+  </si>
+  <si>
+    <t>705-3018</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>1920-29</t>
+  </si>
+  <si>
+    <t>157-831</t>
+  </si>
+  <si>
+    <t>133-1087</t>
+  </si>
+  <si>
+    <t>113-722</t>
+  </si>
+  <si>
+    <t>60-806</t>
+  </si>
+  <si>
+    <t>114-467</t>
+  </si>
+  <si>
+    <t>130-710</t>
+  </si>
+  <si>
+    <t>234-934</t>
+  </si>
+  <si>
+    <t>165-890</t>
+  </si>
+  <si>
+    <t>113-551</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>1930-39</t>
+  </si>
+  <si>
+    <t>92-520</t>
+  </si>
+  <si>
+    <t>125-436</t>
+  </si>
+  <si>
+    <t>72-635</t>
+  </si>
+  <si>
+    <t>76-443</t>
+  </si>
+  <si>
+    <t>76-403</t>
+  </si>
+  <si>
+    <t>67-520</t>
+  </si>
+  <si>
+    <t>115-702</t>
+  </si>
+  <si>
+    <t>85-604</t>
+  </si>
+  <si>
+    <t>127-306</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>1940-1949</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>30-189</t>
+  </si>
+  <si>
+    <t>25-314</t>
+  </si>
+  <si>
+    <t>33-431</t>
+  </si>
+  <si>
+    <t>23-349</t>
+  </si>
+  <si>
+    <t>23-290</t>
+  </si>
+  <si>
+    <t>23-385</t>
+  </si>
+  <si>
+    <t>12-312</t>
+  </si>
+  <si>
+    <t>31-158</t>
+  </si>
+  <si>
+    <t>29-333</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
   <si>
     <t>England &amp; Wales</t>
@@ -602,7 +884,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -610,28 +892,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,268 +1238,271 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="true"/>
+    <col min="2" max="2" width="9.85546875" customWidth="true"/>
+    <col min="4" max="4" width="8" customWidth="true"/>
+    <col min="5" max="5" width="7.85546875" customWidth="true"/>
+    <col min="7" max="7" width="9.85546875" customWidth="true"/>
+    <col min="3" max="3" width="9.85546875" customWidth="true"/>
+    <col min="6" max="6" width="7.85546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0">
+        <v>85</v>
+      </c>
+      <c r="D3" s="0">
+        <v>2320</v>
+      </c>
+      <c r="E3" s="0">
+        <v>370</v>
+      </c>
+      <c r="F3" s="0">
+        <v>210</v>
+      </c>
+      <c r="G3" s="0">
+        <v>59</v>
+      </c>
+      <c r="M3" s="1" t="str" cm="1">
+        <f t="array" aca="true" ref="M3" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <v>1898-1907</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="0">
+        <v>179</v>
+      </c>
+      <c r="C4" s="0">
+        <v>154</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1832</v>
+      </c>
+      <c r="E4" s="0">
+        <v>405</v>
+      </c>
+      <c r="F4" s="0">
+        <v>247</v>
+      </c>
+      <c r="G4" s="0">
+        <v>96</v>
+      </c>
+      <c r="M4" s="1" t="str" cm="1">
+        <f t="array" aca="true" ref="M4" ca="true">INDIRECT("B"&amp;ROW()/2)</f>
+        <v>1898-1907</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="0">
+        <v>114</v>
+      </c>
+      <c r="C5" s="0">
+        <v>290</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1859</v>
+      </c>
+      <c r="E5" s="0">
+        <v>315</v>
+      </c>
+      <c r="F5" s="0">
+        <v>222</v>
+      </c>
+      <c r="G5" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="0">
+        <v>150</v>
+      </c>
+      <c r="C6" s="0">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D6" s="0">
+        <v>1696</v>
+      </c>
+      <c r="E6" s="0">
+        <v>334</v>
+      </c>
+      <c r="F6" s="0">
+        <v>221</v>
+      </c>
+      <c r="G6" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="0">
+        <v>152</v>
+      </c>
+      <c r="C7" s="0">
+        <v>114</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1631</v>
+      </c>
+      <c r="E7" s="0">
+        <v>240</v>
+      </c>
+      <c r="F7" s="0">
+        <v>195</v>
+      </c>
+      <c r="G7" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="0">
+        <v>233</v>
+      </c>
+      <c r="C8" s="0">
+        <v>187</v>
+      </c>
+      <c r="D8" s="0">
+        <v>2803</v>
+      </c>
+      <c r="E8" s="0">
+        <v>333</v>
+      </c>
+      <c r="F8" s="0">
+        <v>245</v>
+      </c>
+      <c r="G8" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="0">
+        <v>204</v>
+      </c>
+      <c r="C9" s="0">
+        <v>170</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2268</v>
+      </c>
+      <c r="E9" s="0">
+        <v>431</v>
+      </c>
+      <c r="F9" s="0">
+        <v>290</v>
+      </c>
+      <c r="G9" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="0">
+        <v>131</v>
+      </c>
+      <c r="C10" s="0">
+        <v>102</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2825</v>
+      </c>
+      <c r="E10" s="0">
+        <v>436</v>
+      </c>
+      <c r="F10" s="0">
+        <v>249</v>
+      </c>
+      <c r="G10" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="0">
+        <v>213</v>
+      </c>
+      <c r="C11" s="0">
+        <v>156</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1571</v>
+      </c>
+      <c r="E11" s="0">
+        <v>316</v>
+      </c>
+      <c r="F11" s="0">
+        <v>223</v>
+      </c>
+      <c r="G11" s="0">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3">
-        <v>85</v>
-      </c>
-      <c r="D3">
-        <v>2320</v>
-      </c>
-      <c r="E3">
-        <v>370</v>
-      </c>
-      <c r="F3">
-        <v>210</v>
-      </c>
-      <c r="G3">
-        <v>59</v>
-      </c>
-      <c r="M3" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
-        <v>1898-1907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4">
-        <v>179</v>
-      </c>
-      <c r="C4">
-        <v>154</v>
-      </c>
-      <c r="D4">
-        <v>1832</v>
-      </c>
-      <c r="E4">
-        <v>405</v>
-      </c>
-      <c r="F4">
-        <v>247</v>
-      </c>
-      <c r="G4">
-        <v>96</v>
-      </c>
-      <c r="M4" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">INDIRECT("B"&amp;ROW()/2)</f>
-        <v>1898-1907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5">
-        <v>114</v>
-      </c>
-      <c r="C5">
-        <v>290</v>
-      </c>
-      <c r="D5">
-        <v>1859</v>
-      </c>
-      <c r="E5">
-        <v>315</v>
-      </c>
-      <c r="F5">
-        <v>222</v>
-      </c>
-      <c r="G5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-      <c r="C6">
-        <v>83</v>
-      </c>
-      <c r="D6">
-        <v>1696</v>
-      </c>
-      <c r="E6">
-        <v>334</v>
-      </c>
-      <c r="F6">
-        <v>221</v>
-      </c>
-      <c r="G6">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7">
-        <v>152</v>
-      </c>
-      <c r="C7">
-        <v>114</v>
-      </c>
-      <c r="D7">
-        <v>1631</v>
-      </c>
-      <c r="E7">
-        <v>240</v>
-      </c>
-      <c r="F7">
-        <v>195</v>
-      </c>
-      <c r="G7">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8">
-        <v>233</v>
-      </c>
-      <c r="C8">
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="D8">
-        <v>2803</v>
-      </c>
-      <c r="E8">
-        <v>333</v>
-      </c>
-      <c r="F8">
-        <v>245</v>
-      </c>
-      <c r="G8">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9">
-        <v>204</v>
-      </c>
-      <c r="C9">
-        <v>170</v>
-      </c>
-      <c r="D9">
-        <v>2268</v>
-      </c>
-      <c r="E9">
-        <v>431</v>
-      </c>
-      <c r="F9">
-        <v>290</v>
-      </c>
-      <c r="G9">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10">
-        <v>131</v>
-      </c>
-      <c r="C10">
-        <v>102</v>
-      </c>
-      <c r="D10">
-        <v>2825</v>
-      </c>
-      <c r="E10">
-        <v>436</v>
-      </c>
-      <c r="F10">
-        <v>249</v>
-      </c>
-      <c r="G10">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11">
-        <v>213</v>
-      </c>
-      <c r="C11">
-        <v>156</v>
-      </c>
-      <c r="D11">
-        <v>1571</v>
-      </c>
-      <c r="E11">
-        <v>316</v>
-      </c>
-      <c r="F11">
-        <v>223</v>
-      </c>
-      <c r="G11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>263</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>209</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>2283</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>385</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>264</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>143</v>
       </c>
     </row>
@@ -1229,13 +1516,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D774B9-40CC-44B5-A33A-3D34DB2C0CC3}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -1273,31 +1560,31 @@
         <v>59</v>
       </c>
       <c r="O1" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="O1" ca="1">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="O1" ca="true">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>NaN</v>
       </c>
       <c r="P1" s="3" cm="1">
-        <f t="array" aca="1" ref="P1" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="P1" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
         <v>85</v>
       </c>
       <c r="Q1" s="3" cm="1">
-        <f t="array" aca="1" ref="Q1" ca="1">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="Q1" ca="true">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
         <v>2320</v>
       </c>
       <c r="R1" s="3" cm="1">
-        <f t="array" aca="1" ref="R1" ca="1">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="R1" ca="true">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
         <v>370</v>
       </c>
       <c r="S1" s="3" cm="1">
-        <f t="array" aca="1" ref="S1" ca="1">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="S1" ca="true">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
         <v>210</v>
       </c>
       <c r="T1" s="3" cm="1">
-        <f t="array" aca="1" ref="T1" ca="1">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="T1" ca="true">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2">
       <c r="A2">
         <v>179</v>
       </c>
@@ -1335,31 +1622,31 @@
         <v>60</v>
       </c>
       <c r="O2" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="O2" ca="1">INDIRECT("G"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="O2" ca="true">INDIRECT("G"&amp;ROW()/2)</f>
         <v>NaN-NaN</v>
       </c>
       <c r="P2" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="P2" ca="1">INDIRECT("H"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="P2" ca="true">INDIRECT("H"&amp;ROW()/2)</f>
         <v>63-98</v>
       </c>
       <c r="Q2" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("I"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="Q2" ca="true">INDIRECT("I"&amp;ROW()/2)</f>
         <v>996-3644</v>
       </c>
       <c r="R2" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="R2" ca="1">INDIRECT("J"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="R2" ca="true">INDIRECT("J"&amp;ROW()/2)</f>
         <v>157-831</v>
       </c>
       <c r="S2" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="S2" ca="1">INDIRECT("K"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="S2" ca="true">INDIRECT("K"&amp;ROW()/2)</f>
         <v>92-520</v>
       </c>
       <c r="T2" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="T2" ca="1">INDIRECT("L"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="T2" ca="true">INDIRECT("L"&amp;ROW()/2)</f>
         <v>22-121</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3">
       <c r="A3">
         <v>114</v>
       </c>
@@ -1397,31 +1684,31 @@
         <v>61</v>
       </c>
       <c r="O3" s="3" cm="1">
-        <f t="array" aca="1" ref="O3" ca="1">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="O3" ca="true">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>179</v>
       </c>
       <c r="P3" s="3" cm="1">
-        <f t="array" aca="1" ref="P3" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="P3" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
         <v>154</v>
       </c>
       <c r="Q3" s="3" cm="1">
-        <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="Q3" ca="true">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
         <v>1832</v>
       </c>
       <c r="R3" s="3" cm="1">
-        <f t="array" aca="1" ref="R3" ca="1">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="R3" ca="true">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
         <v>405</v>
       </c>
       <c r="S3" s="3" cm="1">
-        <f t="array" aca="1" ref="S3" ca="1">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="S3" ca="true">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
         <v>247</v>
       </c>
       <c r="T3" s="3" cm="1">
-        <f t="array" aca="1" ref="T3" ca="1">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="T3" ca="true">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4">
       <c r="A4">
         <v>150</v>
       </c>
@@ -1459,31 +1746,31 @@
         <v>62</v>
       </c>
       <c r="O4" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="O4" ca="1">INDIRECT("G"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="O4" ca="true">INDIRECT("G"&amp;ROW()/2)</f>
         <v>102-358</v>
       </c>
       <c r="P4" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="P4" ca="1">INDIRECT("H"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="P4" ca="true">INDIRECT("H"&amp;ROW()/2)</f>
         <v>94-312</v>
       </c>
       <c r="Q4" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("I"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="Q4" ca="true">INDIRECT("I"&amp;ROW()/2)</f>
         <v>1167-2497</v>
       </c>
       <c r="R4" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="R4" ca="1">INDIRECT("J"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="R4" ca="true">INDIRECT("J"&amp;ROW()/2)</f>
         <v>133-1087</v>
       </c>
       <c r="S4" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="S4" ca="1">INDIRECT("K"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="S4" ca="true">INDIRECT("K"&amp;ROW()/2)</f>
         <v>125-436</v>
       </c>
       <c r="T4" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="T4" ca="1">INDIRECT("L"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="T4" ca="true">INDIRECT("L"&amp;ROW()/2)</f>
         <v>30-189</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5">
       <c r="A5">
         <v>152</v>
       </c>
@@ -1521,31 +1808,31 @@
         <v>63</v>
       </c>
       <c r="O5" s="3" cm="1">
-        <f t="array" aca="1" ref="O5" ca="1">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="O5" ca="true">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>114</v>
       </c>
       <c r="P5" s="3" cm="1">
-        <f t="array" aca="1" ref="P5" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="P5" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
         <v>290</v>
       </c>
       <c r="Q5" s="3" cm="1">
-        <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="Q5" ca="true">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
         <v>1859</v>
       </c>
       <c r="R5" s="3" cm="1">
-        <f t="array" aca="1" ref="R5" ca="1">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="R5" ca="true">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
         <v>315</v>
       </c>
       <c r="S5" s="3" cm="1">
-        <f t="array" aca="1" ref="S5" ca="1">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="S5" ca="true">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
         <v>222</v>
       </c>
       <c r="T5" s="3" cm="1">
-        <f t="array" aca="1" ref="T5" ca="1">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="T5" ca="true">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6">
       <c r="A6">
         <v>233</v>
       </c>
@@ -1583,31 +1870,31 @@
         <v>64</v>
       </c>
       <c r="O6" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="O6" ca="1">INDIRECT("G"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="O6" ca="true">INDIRECT("G"&amp;ROW()/2)</f>
         <v>13-205</v>
       </c>
       <c r="P6" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="P6" ca="1">INDIRECT("H"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="P6" ca="true">INDIRECT("H"&amp;ROW()/2)</f>
         <v>72-1231</v>
       </c>
       <c r="Q6" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("I"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="Q6" ca="true">INDIRECT("I"&amp;ROW()/2)</f>
         <v>1047-2671</v>
       </c>
       <c r="R6" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="R6" ca="1">INDIRECT("J"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="R6" ca="true">INDIRECT("J"&amp;ROW()/2)</f>
         <v>113-722</v>
       </c>
       <c r="S6" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="S6" ca="1">INDIRECT("K"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="S6" ca="true">INDIRECT("K"&amp;ROW()/2)</f>
         <v>72-635</v>
       </c>
       <c r="T6" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="T6" ca="1">INDIRECT("L"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="T6" ca="true">INDIRECT("L"&amp;ROW()/2)</f>
         <v>25-314</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7">
       <c r="A7">
         <v>204</v>
       </c>
@@ -1645,31 +1932,31 @@
         <v>65</v>
       </c>
       <c r="O7" s="3" cm="1">
-        <f t="array" aca="1" ref="O7" ca="1">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="O7" ca="true">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>150</v>
       </c>
       <c r="P7" s="3" cm="1">
-        <f t="array" aca="1" ref="P7" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="P7" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
         <v>83</v>
       </c>
       <c r="Q7" s="3" cm="1">
-        <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="Q7" ca="true">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
         <v>1696</v>
       </c>
       <c r="R7" s="3" cm="1">
-        <f t="array" aca="1" ref="R7" ca="1">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="R7" ca="true">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
         <v>334</v>
       </c>
       <c r="S7" s="3" cm="1">
-        <f t="array" aca="1" ref="S7" ca="1">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="S7" ca="true">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
         <v>221</v>
       </c>
       <c r="T7" s="3" cm="1">
-        <f t="array" aca="1" ref="T7" ca="1">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="T7" ca="true">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8">
       <c r="A8">
         <v>131</v>
       </c>
@@ -1707,31 +1994,31 @@
         <v>66</v>
       </c>
       <c r="O8" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="O8" ca="1">INDIRECT("G"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="O8" ca="true">INDIRECT("G"&amp;ROW()/2)</f>
         <v>77-273</v>
       </c>
       <c r="P8" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="P8" ca="1">INDIRECT("H"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="P8" ca="true">INDIRECT("H"&amp;ROW()/2)</f>
         <v>54-120</v>
       </c>
       <c r="Q8" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("I"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="Q8" ca="true">INDIRECT("I"&amp;ROW()/2)</f>
         <v>1580-1812</v>
       </c>
       <c r="R8" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="R8" ca="1">INDIRECT("J"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="R8" ca="true">INDIRECT("J"&amp;ROW()/2)</f>
         <v>60-806</v>
       </c>
       <c r="S8" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="S8" ca="1">INDIRECT("K"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="S8" ca="true">INDIRECT("K"&amp;ROW()/2)</f>
         <v>76-443</v>
       </c>
       <c r="T8" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="T8" ca="1">INDIRECT("L"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="T8" ca="true">INDIRECT("L"&amp;ROW()/2)</f>
         <v>33-431</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9">
       <c r="A9">
         <v>213</v>
       </c>
@@ -1769,31 +2056,31 @@
         <v>67</v>
       </c>
       <c r="O9" s="3" cm="1">
-        <f t="array" aca="1" ref="O9" ca="1">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="O9" ca="true">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>152</v>
       </c>
       <c r="P9" s="3" cm="1">
-        <f t="array" aca="1" ref="P9" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="P9" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
         <v>114</v>
       </c>
       <c r="Q9" s="3" cm="1">
-        <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="Q9" ca="true">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
         <v>1631</v>
       </c>
       <c r="R9" s="3" cm="1">
-        <f t="array" aca="1" ref="R9" ca="1">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="R9" ca="true">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
         <v>240</v>
       </c>
       <c r="S9" s="3" cm="1">
-        <f t="array" aca="1" ref="S9" ca="1">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="S9" ca="true">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
         <v>195</v>
       </c>
       <c r="T9" s="3" cm="1">
-        <f t="array" aca="1" ref="T9" ca="1">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="T9" ca="true">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10">
       <c r="A10">
         <v>263</v>
       </c>
@@ -1831,291 +2118,291 @@
         <v>75</v>
       </c>
       <c r="O10" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="O10" ca="1">INDIRECT("G"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="O10" ca="true">INDIRECT("G"&amp;ROW()/2)</f>
         <v>61-356</v>
       </c>
       <c r="P10" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="P10" ca="1">INDIRECT("H"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="P10" ca="true">INDIRECT("H"&amp;ROW()/2)</f>
         <v>68-220</v>
       </c>
       <c r="Q10" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="Q10" ca="1">INDIRECT("I"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="Q10" ca="true">INDIRECT("I"&amp;ROW()/2)</f>
         <v>1487-1775</v>
       </c>
       <c r="R10" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="R10" ca="1">INDIRECT("J"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="R10" ca="true">INDIRECT("J"&amp;ROW()/2)</f>
         <v>114-467</v>
       </c>
       <c r="S10" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="S10" ca="1">INDIRECT("K"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="S10" ca="true">INDIRECT("K"&amp;ROW()/2)</f>
         <v>76-403</v>
       </c>
       <c r="T10" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="T10" ca="1">INDIRECT("L"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="T10" ca="true">INDIRECT("L"&amp;ROW()/2)</f>
         <v>23-349</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11">
       <c r="O11" s="3" cm="1">
-        <f t="array" aca="1" ref="O11" ca="1">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="O11" ca="true">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>233</v>
       </c>
       <c r="P11" s="3" cm="1">
-        <f t="array" aca="1" ref="P11" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="P11" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
         <v>187</v>
       </c>
       <c r="Q11" s="3" cm="1">
-        <f t="array" aca="1" ref="Q11" ca="1">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="Q11" ca="true">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
         <v>2803</v>
       </c>
       <c r="R11" s="3" cm="1">
-        <f t="array" aca="1" ref="R11" ca="1">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="R11" ca="true">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
         <v>333</v>
       </c>
       <c r="S11" s="3" cm="1">
-        <f t="array" aca="1" ref="S11" ca="1">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="S11" ca="true">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
         <v>245</v>
       </c>
       <c r="T11" s="3" cm="1">
-        <f t="array" aca="1" ref="T11" ca="1">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="T11" ca="true">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12">
       <c r="O12" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="O12" ca="1">INDIRECT("G"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="O12" ca="true">INDIRECT("G"&amp;ROW()/2)</f>
         <v>140-431</v>
       </c>
       <c r="P12" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="P12" ca="1">INDIRECT("H"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="P12" ca="true">INDIRECT("H"&amp;ROW()/2)</f>
         <v>110-281</v>
       </c>
       <c r="Q12" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="Q12" ca="1">INDIRECT("I"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="Q12" ca="true">INDIRECT("I"&amp;ROW()/2)</f>
         <v>1147-4458</v>
       </c>
       <c r="R12" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="R12" ca="1">INDIRECT("J"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="R12" ca="true">INDIRECT("J"&amp;ROW()/2)</f>
         <v>130-710</v>
       </c>
       <c r="S12" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="S12" ca="1">INDIRECT("K"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="S12" ca="true">INDIRECT("K"&amp;ROW()/2)</f>
         <v>67-520</v>
       </c>
       <c r="T12" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="T12" ca="1">INDIRECT("L"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="T12" ca="true">INDIRECT("L"&amp;ROW()/2)</f>
         <v>23-290</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13">
       <c r="O13" s="3" cm="1">
-        <f t="array" aca="1" ref="O13" ca="1">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="O13" ca="true">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>204</v>
       </c>
       <c r="P13" s="3" cm="1">
-        <f t="array" aca="1" ref="P13" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="P13" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
         <v>170</v>
       </c>
       <c r="Q13" s="3" cm="1">
-        <f t="array" aca="1" ref="Q13" ca="1">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="Q13" ca="true">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
         <v>2268</v>
       </c>
       <c r="R13" s="3" cm="1">
-        <f t="array" aca="1" ref="R13" ca="1">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="R13" ca="true">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
         <v>431</v>
       </c>
       <c r="S13" s="3" cm="1">
-        <f t="array" aca="1" ref="S13" ca="1">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="S13" ca="true">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
         <v>290</v>
       </c>
       <c r="T13" s="3" cm="1">
-        <f t="array" aca="1" ref="T13" ca="1">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="T13" ca="true">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14">
       <c r="O14" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="O14" ca="1">INDIRECT("G"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="O14" ca="true">INDIRECT("G"&amp;ROW()/2)</f>
         <v>112-440</v>
       </c>
       <c r="P14" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="P14" ca="1">INDIRECT("H"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="P14" ca="true">INDIRECT("H"&amp;ROW()/2)</f>
         <v>112-206</v>
       </c>
       <c r="Q14" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="Q14" ca="1">INDIRECT("I"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="Q14" ca="true">INDIRECT("I"&amp;ROW()/2)</f>
         <v>1468-3067</v>
       </c>
       <c r="R14" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="R14" ca="1">INDIRECT("J"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="R14" ca="true">INDIRECT("J"&amp;ROW()/2)</f>
         <v>234-934</v>
       </c>
       <c r="S14" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="S14" ca="1">INDIRECT("K"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="S14" ca="true">INDIRECT("K"&amp;ROW()/2)</f>
         <v>115-702</v>
       </c>
       <c r="T14" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="T14" ca="1">INDIRECT("L"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="T14" ca="true">INDIRECT("L"&amp;ROW()/2)</f>
         <v>23-385</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15">
       <c r="O15" s="3" cm="1">
-        <f t="array" aca="1" ref="O15" ca="1">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="O15" ca="true">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>131</v>
       </c>
       <c r="P15" s="3" cm="1">
-        <f t="array" aca="1" ref="P15" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="P15" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
         <v>102</v>
       </c>
       <c r="Q15" s="3" cm="1">
-        <f t="array" aca="1" ref="Q15" ca="1">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="Q15" ca="true">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
         <v>2825</v>
       </c>
       <c r="R15" s="3" cm="1">
-        <f t="array" aca="1" ref="R15" ca="1">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="R15" ca="true">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
         <v>436</v>
       </c>
       <c r="S15" s="3" cm="1">
-        <f t="array" aca="1" ref="S15" ca="1">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="S15" ca="true">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
         <v>249</v>
       </c>
       <c r="T15" s="3" cm="1">
-        <f t="array" aca="1" ref="T15" ca="1">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="T15" ca="true">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16">
       <c r="O16" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="O16" ca="1">INDIRECT("G"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="O16" ca="true">INDIRECT("G"&amp;ROW()/2)</f>
         <v>81-169</v>
       </c>
       <c r="P16" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="P16" ca="1">INDIRECT("H"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="P16" ca="true">INDIRECT("H"&amp;ROW()/2)</f>
         <v>24-153</v>
       </c>
       <c r="Q16" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="Q16" ca="1">INDIRECT("I"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="Q16" ca="true">INDIRECT("I"&amp;ROW()/2)</f>
         <v>1100-4550</v>
       </c>
       <c r="R16" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="R16" ca="1">INDIRECT("J"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="R16" ca="true">INDIRECT("J"&amp;ROW()/2)</f>
         <v>165-890</v>
       </c>
       <c r="S16" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="S16" ca="1">INDIRECT("K"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="S16" ca="true">INDIRECT("K"&amp;ROW()/2)</f>
         <v>85-604</v>
       </c>
       <c r="T16" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="T16" ca="1">INDIRECT("L"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="T16" ca="true">INDIRECT("L"&amp;ROW()/2)</f>
         <v>12-312</v>
       </c>
     </row>
-    <row r="17" spans="15:20">
+    <row r="17">
       <c r="O17" s="3" cm="1">
-        <f t="array" aca="1" ref="O17" ca="1">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="O17" ca="true">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>213</v>
       </c>
       <c r="P17" s="3" cm="1">
-        <f t="array" aca="1" ref="P17" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="P17" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
         <v>156</v>
       </c>
       <c r="Q17" s="3" cm="1">
-        <f t="array" aca="1" ref="Q17" ca="1">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="Q17" ca="true">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
         <v>1571</v>
       </c>
       <c r="R17" s="3" cm="1">
-        <f t="array" aca="1" ref="R17" ca="1">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="R17" ca="true">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
         <v>316</v>
       </c>
       <c r="S17" s="3" cm="1">
-        <f t="array" aca="1" ref="S17" ca="1">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="S17" ca="true">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
         <v>223</v>
       </c>
       <c r="T17" s="3" cm="1">
-        <f t="array" aca="1" ref="T17" ca="1">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="T17" ca="true">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="15:20">
+    <row r="18">
       <c r="O18" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="O18" ca="1">INDIRECT("G"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="O18" ca="true">INDIRECT("G"&amp;ROW()/2)</f>
         <v>102-365</v>
       </c>
       <c r="P18" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="P18" ca="1">INDIRECT("H"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="P18" ca="true">INDIRECT("H"&amp;ROW()/2)</f>
         <v>89-270</v>
       </c>
       <c r="Q18" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="Q18" ca="1">INDIRECT("I"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="Q18" ca="true">INDIRECT("I"&amp;ROW()/2)</f>
         <v>705-3018</v>
       </c>
       <c r="R18" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="R18" ca="1">INDIRECT("J"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="R18" ca="true">INDIRECT("J"&amp;ROW()/2)</f>
         <v>113-551</v>
       </c>
       <c r="S18" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="S18" ca="1">INDIRECT("K"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="S18" ca="true">INDIRECT("K"&amp;ROW()/2)</f>
         <v>127-306</v>
       </c>
       <c r="T18" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="T18" ca="1">INDIRECT("L"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="T18" ca="true">INDIRECT("L"&amp;ROW()/2)</f>
         <v>31-158</v>
       </c>
     </row>
-    <row r="19" spans="15:20">
+    <row r="19">
       <c r="O19" s="3" cm="1">
-        <f t="array" aca="1" ref="O19" ca="1">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="O19" ca="true">INDIRECT("A"&amp;INT(ROW()/2)+1)</f>
         <v>263</v>
       </c>
       <c r="P19" s="3" cm="1">
-        <f t="array" aca="1" ref="P19" ca="1">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="P19" ca="true">INDIRECT("B"&amp;INT(ROW()/2)+1)</f>
         <v>209</v>
       </c>
       <c r="Q19" s="3" cm="1">
-        <f t="array" aca="1" ref="Q19" ca="1">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="Q19" ca="true">INDIRECT("C"&amp;INT(ROW()/2)+1)</f>
         <v>2283</v>
       </c>
       <c r="R19" s="3" cm="1">
-        <f t="array" aca="1" ref="R19" ca="1">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="R19" ca="true">INDIRECT("D"&amp;INT(ROW()/2)+1)</f>
         <v>385</v>
       </c>
       <c r="S19" s="3" cm="1">
-        <f t="array" aca="1" ref="S19" ca="1">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="S19" ca="true">INDIRECT("E"&amp;INT(ROW()/2)+1)</f>
         <v>264</v>
       </c>
       <c r="T19" s="3" cm="1">
-        <f t="array" aca="1" ref="T19" ca="1">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
+        <f t="array" aca="true" ref="T19" ca="true">INDIRECT("F"&amp;INT(ROW()/2)+1)</f>
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="15:20">
+    <row r="20">
       <c r="O20" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="O20" ca="1">INDIRECT("G"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="O20" ca="true">INDIRECT("G"&amp;ROW()/2)</f>
         <v>169-504</v>
       </c>
       <c r="P20" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="P20" ca="1">INDIRECT("H"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="P20" ca="true">INDIRECT("H"&amp;ROW()/2)</f>
         <v>120-297</v>
       </c>
       <c r="Q20" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="Q20" ca="1">INDIRECT("I"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="Q20" ca="true">INDIRECT("I"&amp;ROW()/2)</f>
         <v>1265-3301</v>
       </c>
       <c r="R20" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="R20" ca="1">INDIRECT("J"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="R20" ca="true">INDIRECT("J"&amp;ROW()/2)</f>
         <v>196-734</v>
       </c>
       <c r="S20" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="S20" ca="1">INDIRECT("K"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="S20" ca="true">INDIRECT("K"&amp;ROW()/2)</f>
         <v>118-567</v>
       </c>
       <c r="T20" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="T20" ca="1">INDIRECT("L"&amp;ROW()/2)</f>
+        <f t="array" aca="true" ref="T20" ca="true">INDIRECT("L"&amp;ROW()/2)</f>
         <v>29-333</v>
       </c>
     </row>
-    <row r="21" spans="15:20">
+    <row r="21">
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2123,7 +2410,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="15:20">
+    <row r="22">
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2146,7 +2433,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4">
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2209,7 +2496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2519,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6">
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
@@ -2252,7 +2539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -2275,7 +2562,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8">
       <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
@@ -2295,7 +2582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -2318,7 +2605,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10">
       <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
@@ -2338,7 +2625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2361,7 +2648,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12">
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
@@ -2381,7 +2668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -2404,7 +2691,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14">
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
@@ -2424,7 +2711,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -2447,7 +2734,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16">
       <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
@@ -2467,7 +2754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -2490,7 +2777,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18">
       <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
@@ -2510,7 +2797,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -2533,7 +2820,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20">
       <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
@@ -2553,7 +2840,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21">
       <c r="B21" t="s">
         <v>76</v>
       </c>
@@ -2576,7 +2863,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22">
       <c r="C22" s="6" t="s">
         <v>69</v>
       </c>
@@ -2611,264 +2898,266 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="true"/>
+    <col min="2" max="2" width="9.85546875" customWidth="true"/>
+    <col min="5" max="5" width="8.85546875" customWidth="true"/>
+    <col min="6" max="6" width="7.85546875" customWidth="true"/>
+    <col min="7" max="7" width="9.85546875" customWidth="true"/>
+    <col min="3" max="3" width="9.85546875" customWidth="true"/>
+    <col min="4" max="4" width="9.85546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" t="s">
-        <v>159</v>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
